--- a/R/BHrecruits.xlsx
+++ b/R/BHrecruits.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan.morse\Documents\GitHub\atneus_RM\R\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="BH" sheetId="1" r:id="rId1"/>
+    <sheet name="spawn" sheetId="2" r:id="rId2"/>
+    <sheet name="mig" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="1082">
   <si>
     <t>BHalpha_ANC</t>
   </si>
@@ -2108,12 +2114,1170 @@
   </si>
   <si>
     <t>Recruit_Period_NSH</t>
+  </si>
+  <si>
+    <t>MAK_Migrate_Time</t>
+  </si>
+  <si>
+    <t>HER_Migrate_Time</t>
+  </si>
+  <si>
+    <t>WHK_Migrate_Time</t>
+  </si>
+  <si>
+    <t>BLF_Migrate_Time</t>
+  </si>
+  <si>
+    <t>WPF_Migrate_Time</t>
+  </si>
+  <si>
+    <t>SUF_Migrate_Time</t>
+  </si>
+  <si>
+    <t>WIF_Migrate_Time</t>
+  </si>
+  <si>
+    <t>WTF_Migrate_Time</t>
+  </si>
+  <si>
+    <t>HAL_Migrate_Time</t>
+  </si>
+  <si>
+    <t>PLA_Migrate_Time</t>
+  </si>
+  <si>
+    <t>FOU_Migrate_Time</t>
+  </si>
+  <si>
+    <t>FLA_Migrate_Time</t>
+  </si>
+  <si>
+    <t>BFT_Migrate_Time</t>
+  </si>
+  <si>
+    <t>TUN_Migrate_Time</t>
+  </si>
+  <si>
+    <t>BIL_Migrate_Time</t>
+  </si>
+  <si>
+    <t>MPF_Migrate_Time</t>
+  </si>
+  <si>
+    <t>BUT_Migrate_Time</t>
+  </si>
+  <si>
+    <t>ANC_Migrate_Time</t>
+  </si>
+  <si>
+    <t>BPF_Migrate_Time</t>
+  </si>
+  <si>
+    <t>GOO_Migrate_Time</t>
+  </si>
+  <si>
+    <t>MEN_Migrate_Time</t>
+  </si>
+  <si>
+    <t>FDE_Migrate_Time</t>
+  </si>
+  <si>
+    <t>COD_Migrate_Time</t>
+  </si>
+  <si>
+    <t>SHK_Migrate_Time</t>
+  </si>
+  <si>
+    <t>OHK_Migrate_Time</t>
+  </si>
+  <si>
+    <t>POL_Migrate_Time</t>
+  </si>
+  <si>
+    <t>RHK_Migrate_Time</t>
+  </si>
+  <si>
+    <t>BSB_Migrate_Time</t>
+  </si>
+  <si>
+    <t>SCU_Migrate_Time</t>
+  </si>
+  <si>
+    <t>TYL_Migrate_Time</t>
+  </si>
+  <si>
+    <t>RED_Migrate_Time</t>
+  </si>
+  <si>
+    <t>OPT_Migrate_Time</t>
+  </si>
+  <si>
+    <t>SAL_Migrate_Time</t>
+  </si>
+  <si>
+    <t>DRM_Migrate_Time</t>
+  </si>
+  <si>
+    <t>STB_Migrate_Time</t>
+  </si>
+  <si>
+    <t>TAU_Migrate_Time</t>
+  </si>
+  <si>
+    <t>WOL_Migrate_Time</t>
+  </si>
+  <si>
+    <t>SDF_Migrate_Time</t>
+  </si>
+  <si>
+    <t>FDF_Migrate_Time</t>
+  </si>
+  <si>
+    <t>HAD_Migrate_Time</t>
+  </si>
+  <si>
+    <t>YTF_Migrate_Time</t>
+  </si>
+  <si>
+    <t>DOG_Migrate_Time</t>
+  </si>
+  <si>
+    <t>SMO_Migrate_Time</t>
+  </si>
+  <si>
+    <t>SSH_Migrate_Time</t>
+  </si>
+  <si>
+    <t>DSH_Migrate_Time</t>
+  </si>
+  <si>
+    <t>BLS_Migrate_Time</t>
+  </si>
+  <si>
+    <t>POR_Migrate_Time</t>
+  </si>
+  <si>
+    <t>PSH_Migrate_Time</t>
+  </si>
+  <si>
+    <t>WSK_Migrate_Time</t>
+  </si>
+  <si>
+    <t>LSK_Migrate_Time</t>
+  </si>
+  <si>
+    <t>SK_Migrate_Time</t>
+  </si>
+  <si>
+    <t>SB_Migrate_Time</t>
+  </si>
+  <si>
+    <t>PIN_Migrate_Time</t>
+  </si>
+  <si>
+    <t>REP_Migrate_Time</t>
+  </si>
+  <si>
+    <t>RWH_Migrate_Time</t>
+  </si>
+  <si>
+    <t>BWH_Migrate_Time</t>
+  </si>
+  <si>
+    <t>SWH_Migrate_Time</t>
+  </si>
+  <si>
+    <t>TWH_Migrate_Time</t>
+  </si>
+  <si>
+    <t>INV_Migrate_Time</t>
+  </si>
+  <si>
+    <t>LSQ_Migrate_Time</t>
+  </si>
+  <si>
+    <t>ISQ_Migrate_Time</t>
+  </si>
+  <si>
+    <t>LOB_Migrate_Time</t>
+  </si>
+  <si>
+    <t>NSH_Migrate_Time</t>
+  </si>
+  <si>
+    <t>OSH_Migrate_Time</t>
+  </si>
+  <si>
+    <t>ZL_Migrate_Time</t>
+  </si>
+  <si>
+    <t>MAK_Migrate_Return</t>
+  </si>
+  <si>
+    <t>HER_Migrate_Return</t>
+  </si>
+  <si>
+    <t>WHK_Migrate_Return</t>
+  </si>
+  <si>
+    <t>BLF_Migrate_Return</t>
+  </si>
+  <si>
+    <t>WPF_Migrate_Return</t>
+  </si>
+  <si>
+    <t>SUF_Migrate_Return</t>
+  </si>
+  <si>
+    <t>WIF_Migrate_Return</t>
+  </si>
+  <si>
+    <t>WTF_Migrate_Return</t>
+  </si>
+  <si>
+    <t>HAL_Migrate_Return</t>
+  </si>
+  <si>
+    <t>PLA_Migrate_Return</t>
+  </si>
+  <si>
+    <t>FOU_Migrate_Return</t>
+  </si>
+  <si>
+    <t>FLA_Migrate_Return</t>
+  </si>
+  <si>
+    <t>BFT_Migrate_Return</t>
+  </si>
+  <si>
+    <t>TUN_Migrate_Return</t>
+  </si>
+  <si>
+    <t>BIL_Migrate_Return</t>
+  </si>
+  <si>
+    <t>MPF_Migrate_Return</t>
+  </si>
+  <si>
+    <t>BUT_Migrate_Return</t>
+  </si>
+  <si>
+    <t>ANC_Migrate_Return</t>
+  </si>
+  <si>
+    <t>BPF_Migrate_Return</t>
+  </si>
+  <si>
+    <t>GOO_Migrate_Return</t>
+  </si>
+  <si>
+    <t>MEN_Migrate_Return</t>
+  </si>
+  <si>
+    <t>FDE_Migrate_Return</t>
+  </si>
+  <si>
+    <t>COD_Migrate_Return</t>
+  </si>
+  <si>
+    <t>SHK_Migrate_Return</t>
+  </si>
+  <si>
+    <t>OHK_Migrate_Return</t>
+  </si>
+  <si>
+    <t>POL_Migrate_Return</t>
+  </si>
+  <si>
+    <t>RHK_Migrate_Return</t>
+  </si>
+  <si>
+    <t>BSB_Migrate_Return</t>
+  </si>
+  <si>
+    <t>SCU_Migrate_Return</t>
+  </si>
+  <si>
+    <t>TYL_Migrate_Return</t>
+  </si>
+  <si>
+    <t>RED_Migrate_Return</t>
+  </si>
+  <si>
+    <t>OPT_Migrate_Return</t>
+  </si>
+  <si>
+    <t>SAL_Migrate_Return</t>
+  </si>
+  <si>
+    <t>DRM_Migrate_Return</t>
+  </si>
+  <si>
+    <t>STB_Migrate_Return</t>
+  </si>
+  <si>
+    <t>TAU_Migrate_Return</t>
+  </si>
+  <si>
+    <t>WOL_Migrate_Return</t>
+  </si>
+  <si>
+    <t>SDF_Migrate_Return</t>
+  </si>
+  <si>
+    <t>FDF_Migrate_Return</t>
+  </si>
+  <si>
+    <t>HAD_Migrate_Return</t>
+  </si>
+  <si>
+    <t>YTF_Migrate_Return</t>
+  </si>
+  <si>
+    <t>DOG_Migrate_Return</t>
+  </si>
+  <si>
+    <t>SMO_Migrate_Return</t>
+  </si>
+  <si>
+    <t>SSH_Migrate_Return</t>
+  </si>
+  <si>
+    <t>DSH_Migrate_Return</t>
+  </si>
+  <si>
+    <t>BLS_Migrate_Return</t>
+  </si>
+  <si>
+    <t>POR_Migrate_Return</t>
+  </si>
+  <si>
+    <t>PSH_Migrate_Return</t>
+  </si>
+  <si>
+    <t>WSK_Migrate_Return</t>
+  </si>
+  <si>
+    <t>LSK_Migrate_Return</t>
+  </si>
+  <si>
+    <t>SK_Migrate_Return</t>
+  </si>
+  <si>
+    <t>SB_Migrate_Return</t>
+  </si>
+  <si>
+    <t>PIN_Migrate_Return</t>
+  </si>
+  <si>
+    <t>REP_Migrate_Return</t>
+  </si>
+  <si>
+    <t>RWH_Migrate_Return</t>
+  </si>
+  <si>
+    <t>BWH_Migrate_Return</t>
+  </si>
+  <si>
+    <t>SWH_Migrate_Return</t>
+  </si>
+  <si>
+    <t>TWH_Migrate_Return</t>
+  </si>
+  <si>
+    <t>INV_Migrate_Return</t>
+  </si>
+  <si>
+    <t>LSQ_Migrate_Return</t>
+  </si>
+  <si>
+    <t>ISQ_Migrate_Return</t>
+  </si>
+  <si>
+    <t>LOB_Migrate_Return</t>
+  </si>
+  <si>
+    <t>NSH_Migrate_Return</t>
+  </si>
+  <si>
+    <t>OSH_Migrate_Return</t>
+  </si>
+  <si>
+    <t>ZL_Migrate_Return</t>
+  </si>
+  <si>
+    <t>MAK_Migrate_Period</t>
+  </si>
+  <si>
+    <t>HER_Migrate_Period</t>
+  </si>
+  <si>
+    <t>WHK_Migrate_Period</t>
+  </si>
+  <si>
+    <t>BLF_Migrate_Period</t>
+  </si>
+  <si>
+    <t>WPF_Migrate_Period</t>
+  </si>
+  <si>
+    <t>SUF_Migrate_Period</t>
+  </si>
+  <si>
+    <t>WIF_Migrate_Period</t>
+  </si>
+  <si>
+    <t>WTF_Migrate_Period</t>
+  </si>
+  <si>
+    <t>HAL_Migrate_Period</t>
+  </si>
+  <si>
+    <t>PLA_Migrate_Period</t>
+  </si>
+  <si>
+    <t>FOU_Migrate_Period</t>
+  </si>
+  <si>
+    <t>FLA_Migrate_Period</t>
+  </si>
+  <si>
+    <t>BFT_Migrate_Period</t>
+  </si>
+  <si>
+    <t>TUN_Migrate_Period</t>
+  </si>
+  <si>
+    <t>BIL_Migrate_Period</t>
+  </si>
+  <si>
+    <t>MPF_Migrate_Period</t>
+  </si>
+  <si>
+    <t>BUT_Migrate_Period</t>
+  </si>
+  <si>
+    <t>ANC_Migrate_Period</t>
+  </si>
+  <si>
+    <t>BPF_Migrate_Period</t>
+  </si>
+  <si>
+    <t>GOO_Migrate_Period</t>
+  </si>
+  <si>
+    <t>MEN_Migrate_Period</t>
+  </si>
+  <si>
+    <t>FDE_Migrate_Period</t>
+  </si>
+  <si>
+    <t>COD_Migrate_Period</t>
+  </si>
+  <si>
+    <t>SHK_Migrate_Period</t>
+  </si>
+  <si>
+    <t>OHK_Migrate_Period</t>
+  </si>
+  <si>
+    <t>POL_Migrate_Period</t>
+  </si>
+  <si>
+    <t>RHK_Migrate_Period</t>
+  </si>
+  <si>
+    <t>BSB_Migrate_Period</t>
+  </si>
+  <si>
+    <t>SCU_Migrate_Period</t>
+  </si>
+  <si>
+    <t>TYL_Migrate_Period</t>
+  </si>
+  <si>
+    <t>RED_Migrate_Period</t>
+  </si>
+  <si>
+    <t>OPT_Migrate_Period</t>
+  </si>
+  <si>
+    <t>SAL_Migrate_Period</t>
+  </si>
+  <si>
+    <t>DRM_Migrate_Period</t>
+  </si>
+  <si>
+    <t>STB_Migrate_Period</t>
+  </si>
+  <si>
+    <t>TAU_Migrate_Period</t>
+  </si>
+  <si>
+    <t>WOL_Migrate_Period</t>
+  </si>
+  <si>
+    <t>SDF_Migrate_Period</t>
+  </si>
+  <si>
+    <t>FDF_Migrate_Period</t>
+  </si>
+  <si>
+    <t>HAD_Migrate_Period</t>
+  </si>
+  <si>
+    <t>YTF_Migrate_Period</t>
+  </si>
+  <si>
+    <t>DOG_Migrate_Period</t>
+  </si>
+  <si>
+    <t>SMO_Migrate_Period</t>
+  </si>
+  <si>
+    <t>SSH_Migrate_Period</t>
+  </si>
+  <si>
+    <t>DSH_Migrate_Period</t>
+  </si>
+  <si>
+    <t>BLS_Migrate_Period</t>
+  </si>
+  <si>
+    <t>POR_Migrate_Period</t>
+  </si>
+  <si>
+    <t>PSH_Migrate_Period</t>
+  </si>
+  <si>
+    <t>WSK_Migrate_Period</t>
+  </si>
+  <si>
+    <t>LSK_Migrate_Period</t>
+  </si>
+  <si>
+    <t>SK_Migrate_Period</t>
+  </si>
+  <si>
+    <t>SB_Migrate_Period</t>
+  </si>
+  <si>
+    <t>PIN_Migrate_Period</t>
+  </si>
+  <si>
+    <t>REP_Migrate_Period</t>
+  </si>
+  <si>
+    <t>RWH_Migrate_Period</t>
+  </si>
+  <si>
+    <t>BWH_Migrate_Period</t>
+  </si>
+  <si>
+    <t>SWH_Migrate_Period</t>
+  </si>
+  <si>
+    <t>TWH_Migrate_Period</t>
+  </si>
+  <si>
+    <t>INV_Migrate_Period</t>
+  </si>
+  <si>
+    <t>LSQ_Migrate_Period</t>
+  </si>
+  <si>
+    <t>ISQ_Migrate_Period</t>
+  </si>
+  <si>
+    <t>LOB_Migrate_Period</t>
+  </si>
+  <si>
+    <t>NSH_Migrate_Period</t>
+  </si>
+  <si>
+    <t>OSH_Migrate_Period</t>
+  </si>
+  <si>
+    <t>ZL_Migrate_Period</t>
+  </si>
+  <si>
+    <t>MAK_FSM</t>
+  </si>
+  <si>
+    <t>HER_FSM</t>
+  </si>
+  <si>
+    <t>WHK_FSM</t>
+  </si>
+  <si>
+    <t>BLF_FSM</t>
+  </si>
+  <si>
+    <t>WPF_FSM</t>
+  </si>
+  <si>
+    <t>SUF_FSM</t>
+  </si>
+  <si>
+    <t>WIF_FSM</t>
+  </si>
+  <si>
+    <t>WTF_FSM</t>
+  </si>
+  <si>
+    <t>HAL_FSM</t>
+  </si>
+  <si>
+    <t>PLA_FSM</t>
+  </si>
+  <si>
+    <t>FOU_FSM</t>
+  </si>
+  <si>
+    <t>FLA_FSM</t>
+  </si>
+  <si>
+    <t>BFT_FSM</t>
+  </si>
+  <si>
+    <t>TUN_FSM</t>
+  </si>
+  <si>
+    <t>BIL_FSM</t>
+  </si>
+  <si>
+    <t>MPF_FSM</t>
+  </si>
+  <si>
+    <t>BUT_FSM</t>
+  </si>
+  <si>
+    <t>ANC_FSM</t>
+  </si>
+  <si>
+    <t>BPF_FSM</t>
+  </si>
+  <si>
+    <t>GOO_FSM</t>
+  </si>
+  <si>
+    <t>MEN_FSM</t>
+  </si>
+  <si>
+    <t>FDE_FSM</t>
+  </si>
+  <si>
+    <t>COD_FSM</t>
+  </si>
+  <si>
+    <t>SHK_FSM</t>
+  </si>
+  <si>
+    <t>OHK_FSM</t>
+  </si>
+  <si>
+    <t>POL_FSM</t>
+  </si>
+  <si>
+    <t>RHK_FSM</t>
+  </si>
+  <si>
+    <t>BSB_FSM</t>
+  </si>
+  <si>
+    <t>SCU_FSM</t>
+  </si>
+  <si>
+    <t>TYL_FSM</t>
+  </si>
+  <si>
+    <t>RED_FSM</t>
+  </si>
+  <si>
+    <t>OPT_FSM</t>
+  </si>
+  <si>
+    <t>SAL_FSM</t>
+  </si>
+  <si>
+    <t>DRM_FSM</t>
+  </si>
+  <si>
+    <t>STB_FSM</t>
+  </si>
+  <si>
+    <t>TAU_FSM</t>
+  </si>
+  <si>
+    <t>WOL_FSM</t>
+  </si>
+  <si>
+    <t>SDF_FSM</t>
+  </si>
+  <si>
+    <t>FDF_FSM</t>
+  </si>
+  <si>
+    <t>HAD_FSM</t>
+  </si>
+  <si>
+    <t>YTF_FSM</t>
+  </si>
+  <si>
+    <t>DOG_FSM</t>
+  </si>
+  <si>
+    <t>SMO_FSM</t>
+  </si>
+  <si>
+    <t>SSH_FSM</t>
+  </si>
+  <si>
+    <t>DSH_FSM</t>
+  </si>
+  <si>
+    <t>BLS_FSM</t>
+  </si>
+  <si>
+    <t>POR_FSM</t>
+  </si>
+  <si>
+    <t>PSH_FSM</t>
+  </si>
+  <si>
+    <t>WSK_FSM</t>
+  </si>
+  <si>
+    <t>LSK_FSM</t>
+  </si>
+  <si>
+    <t>SK_FSM</t>
+  </si>
+  <si>
+    <t>SB_FSM</t>
+  </si>
+  <si>
+    <t>PIN_FSM</t>
+  </si>
+  <si>
+    <t>REP_FSM</t>
+  </si>
+  <si>
+    <t>RWH_FSM</t>
+  </si>
+  <si>
+    <t>BWH_FSM</t>
+  </si>
+  <si>
+    <t>SWH_FSM</t>
+  </si>
+  <si>
+    <t>TWH_FSM</t>
+  </si>
+  <si>
+    <t>INV_FSM</t>
+  </si>
+  <si>
+    <t>LSQ_FSM</t>
+  </si>
+  <si>
+    <t>ISQ_FSM</t>
+  </si>
+  <si>
+    <t>LOB_FSM</t>
+  </si>
+  <si>
+    <t>NSH_FSM</t>
+  </si>
+  <si>
+    <t>OSH_FSM</t>
+  </si>
+  <si>
+    <t>ZL_FSM</t>
+  </si>
+  <si>
+    <t>MAK_FSMG</t>
+  </si>
+  <si>
+    <t>HER_FSMG</t>
+  </si>
+  <si>
+    <t>WHK_FSMG</t>
+  </si>
+  <si>
+    <t>BLF_FSMG</t>
+  </si>
+  <si>
+    <t>WPF_FSMG</t>
+  </si>
+  <si>
+    <t>SUF_FSMG</t>
+  </si>
+  <si>
+    <t>WIF_FSMG</t>
+  </si>
+  <si>
+    <t>WTF_FSMG</t>
+  </si>
+  <si>
+    <t>HAL_FSMG</t>
+  </si>
+  <si>
+    <t>PLA_FSMG</t>
+  </si>
+  <si>
+    <t>FOU_FSMG</t>
+  </si>
+  <si>
+    <t>FLA_FSMG</t>
+  </si>
+  <si>
+    <t>BFT_FSMG</t>
+  </si>
+  <si>
+    <t>TUN_FSMG</t>
+  </si>
+  <si>
+    <t>BIL_FSMG</t>
+  </si>
+  <si>
+    <t>MPF_FSMG</t>
+  </si>
+  <si>
+    <t>BUT_FSMG</t>
+  </si>
+  <si>
+    <t>ANC_FSMG</t>
+  </si>
+  <si>
+    <t>BPF_FSMG</t>
+  </si>
+  <si>
+    <t>GOO_FSMG</t>
+  </si>
+  <si>
+    <t>MEN_FSMG</t>
+  </si>
+  <si>
+    <t>FDE_FSMG</t>
+  </si>
+  <si>
+    <t>COD_FSMG</t>
+  </si>
+  <si>
+    <t>SHK_FSMG</t>
+  </si>
+  <si>
+    <t>OHK_FSMG</t>
+  </si>
+  <si>
+    <t>POL_FSMG</t>
+  </si>
+  <si>
+    <t>RHK_FSMG</t>
+  </si>
+  <si>
+    <t>BSB_FSMG</t>
+  </si>
+  <si>
+    <t>SCU_FSMG</t>
+  </si>
+  <si>
+    <t>TYL_FSMG</t>
+  </si>
+  <si>
+    <t>RED_FSMG</t>
+  </si>
+  <si>
+    <t>OPT_FSMG</t>
+  </si>
+  <si>
+    <t>SAL_FSMG</t>
+  </si>
+  <si>
+    <t>DRM_FSMG</t>
+  </si>
+  <si>
+    <t>STB_FSMG</t>
+  </si>
+  <si>
+    <t>TAU_FSMG</t>
+  </si>
+  <si>
+    <t>WOL_FSMG</t>
+  </si>
+  <si>
+    <t>SDF_FSMG</t>
+  </si>
+  <si>
+    <t>FDF_FSMG</t>
+  </si>
+  <si>
+    <t>HAD_FSMG</t>
+  </si>
+  <si>
+    <t>YTF_FSMG</t>
+  </si>
+  <si>
+    <t>DOG_FSMG</t>
+  </si>
+  <si>
+    <t>SMO_FSMG</t>
+  </si>
+  <si>
+    <t>SSH_FSMG</t>
+  </si>
+  <si>
+    <t>DSH_FSMG</t>
+  </si>
+  <si>
+    <t>BLS_FSMG</t>
+  </si>
+  <si>
+    <t>POR_FSMG</t>
+  </si>
+  <si>
+    <t>PSH_FSMG</t>
+  </si>
+  <si>
+    <t>WSK_FSMG</t>
+  </si>
+  <si>
+    <t>LSK_FSMG</t>
+  </si>
+  <si>
+    <t>SK_FSMG</t>
+  </si>
+  <si>
+    <t>SB_FSMG</t>
+  </si>
+  <si>
+    <t>PIN_FSMG</t>
+  </si>
+  <si>
+    <t>REP_FSMG</t>
+  </si>
+  <si>
+    <t>RWH_FSMG</t>
+  </si>
+  <si>
+    <t>BWH_FSMG</t>
+  </si>
+  <si>
+    <t>SWH_FSMG</t>
+  </si>
+  <si>
+    <t>TWH_FSMG</t>
+  </si>
+  <si>
+    <t>INV_FSMG</t>
+  </si>
+  <si>
+    <t>LSQ_FSMG</t>
+  </si>
+  <si>
+    <t>ISQ_FSMG</t>
+  </si>
+  <si>
+    <t>LOB_FSMG</t>
+  </si>
+  <si>
+    <t>NSH_FSMG</t>
+  </si>
+  <si>
+    <t>OSH_FSMG</t>
+  </si>
+  <si>
+    <t>ZL_FSMG</t>
+  </si>
+  <si>
+    <t>flagMAKMigrate</t>
+  </si>
+  <si>
+    <t>flagHERMigrate</t>
+  </si>
+  <si>
+    <t>flagWHKMigrate</t>
+  </si>
+  <si>
+    <t>flagBLFMigrate</t>
+  </si>
+  <si>
+    <t>flagWPFMigrate</t>
+  </si>
+  <si>
+    <t>flagSUFMigrate</t>
+  </si>
+  <si>
+    <t>flagWIFMigrate</t>
+  </si>
+  <si>
+    <t>flagWTFMigrate</t>
+  </si>
+  <si>
+    <t>flagHALMigrate</t>
+  </si>
+  <si>
+    <t>flagPLAMigrate</t>
+  </si>
+  <si>
+    <t>flagFOUMigrate</t>
+  </si>
+  <si>
+    <t>flagFLAMigrate</t>
+  </si>
+  <si>
+    <t>flagBFTMigrate</t>
+  </si>
+  <si>
+    <t>flagTUNMigrate</t>
+  </si>
+  <si>
+    <t>flagBILMigrate</t>
+  </si>
+  <si>
+    <t>flagMPFMigrate</t>
+  </si>
+  <si>
+    <t>flagBUTMigrate</t>
+  </si>
+  <si>
+    <t>flagANCMigrate</t>
+  </si>
+  <si>
+    <t>flagBPFMigrate</t>
+  </si>
+  <si>
+    <t>flagGOOMigrate</t>
+  </si>
+  <si>
+    <t>flagMENMigrate</t>
+  </si>
+  <si>
+    <t>flagFDEMigrate</t>
+  </si>
+  <si>
+    <t>flagCODMigrate</t>
+  </si>
+  <si>
+    <t>flagSHKMigrate</t>
+  </si>
+  <si>
+    <t>flagOHKMigrate</t>
+  </si>
+  <si>
+    <t>flagPOLMigrate</t>
+  </si>
+  <si>
+    <t>flagRHKMigrate</t>
+  </si>
+  <si>
+    <t>flagBSBMigrate</t>
+  </si>
+  <si>
+    <t>flagSCUMigrate</t>
+  </si>
+  <si>
+    <t>flagTYLMigrate</t>
+  </si>
+  <si>
+    <t>flagREDMigrate</t>
+  </si>
+  <si>
+    <t>flagOPTMigrate</t>
+  </si>
+  <si>
+    <t>flagSALMigrate</t>
+  </si>
+  <si>
+    <t>flagDRMMigrate</t>
+  </si>
+  <si>
+    <t>flagSTBMigrate</t>
+  </si>
+  <si>
+    <t>flagTAUMigrate</t>
+  </si>
+  <si>
+    <t>flagWOLMigrate</t>
+  </si>
+  <si>
+    <t>flagSDFMigrate</t>
+  </si>
+  <si>
+    <t>flagFDFMigrate</t>
+  </si>
+  <si>
+    <t>flagHADMigrate</t>
+  </si>
+  <si>
+    <t>flagYTFMigrate</t>
+  </si>
+  <si>
+    <t>flagDOGMigrate</t>
+  </si>
+  <si>
+    <t>flagSMOMigrate</t>
+  </si>
+  <si>
+    <t>flagSSHMigrate</t>
+  </si>
+  <si>
+    <t>flagDSHMigrate</t>
+  </si>
+  <si>
+    <t>flagBLSMigrate</t>
+  </si>
+  <si>
+    <t>flagPORMigrate</t>
+  </si>
+  <si>
+    <t>flagPSHMigrate</t>
+  </si>
+  <si>
+    <t>flagWSKMigrate</t>
+  </si>
+  <si>
+    <t>flagLSKMigrate</t>
+  </si>
+  <si>
+    <t>flagSKMigrate</t>
+  </si>
+  <si>
+    <t>flagSBMigrate</t>
+  </si>
+  <si>
+    <t>flagPINMigrate</t>
+  </si>
+  <si>
+    <t>flagREPMigrate</t>
+  </si>
+  <si>
+    <t>flagRWHMigrate</t>
+  </si>
+  <si>
+    <t>flagBWHMigrate</t>
+  </si>
+  <si>
+    <t>flagSWHMigrate</t>
+  </si>
+  <si>
+    <t>flagTWHMigrate</t>
+  </si>
+  <si>
+    <t>flagINVMigrate</t>
+  </si>
+  <si>
+    <t>mortality outside model</t>
+  </si>
+  <si>
+    <t>growth outside model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss\ AM/PM"/>
   </numFmts>
@@ -2155,17 +3319,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2181,6 +3335,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2229,7 +3386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2264,7 +3421,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2475,8 +3632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA114"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5635,8 +6792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5680,7 +6837,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <f>B2*D2</f>
+        <f t="shared" ref="E2:E33" si="0">B2*D2</f>
         <v>2</v>
       </c>
       <c r="F2" t="s">
@@ -5736,7 +6893,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <f>B3*D3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F3" t="s">
@@ -5770,11 +6927,11 @@
         <v>31.93</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q64" si="0">G3+I3+K3</f>
+        <f t="shared" ref="Q3:Q64" si="1">G3+I3+K3</f>
         <v>327</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R64" si="1">Q3+M3</f>
+        <f t="shared" ref="R3:R64" si="2">Q3+M3</f>
         <v>387</v>
       </c>
     </row>
@@ -5792,7 +6949,7 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <f>B4*D4</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F4" t="s">
@@ -5826,11 +6983,11 @@
         <v>569.65</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>117</v>
       </c>
       <c r="R4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>207</v>
       </c>
     </row>
@@ -5848,7 +7005,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <f>B5*D5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5" t="s">
@@ -5882,11 +7039,11 @@
         <v>569.65</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>217</v>
       </c>
       <c r="R5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>247</v>
       </c>
     </row>
@@ -5904,7 +7061,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <f>B6*D6</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F6" t="s">
@@ -5938,11 +7095,11 @@
         <v>569.65</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="R6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
     </row>
@@ -5960,7 +7117,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <f>B7*D7</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F7" t="s">
@@ -5994,11 +7151,11 @@
         <v>569.65</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="R7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
     </row>
@@ -6016,7 +7173,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <f>B8*D8</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F8" t="s">
@@ -6050,11 +7207,11 @@
         <v>569.65</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="R8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
     </row>
@@ -6072,7 +7229,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <f>B9*D9</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F9" t="s">
@@ -6106,11 +7263,11 @@
         <v>569.65</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="R9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
     </row>
@@ -6128,7 +7285,7 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <f>B10*D10</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F10" t="s">
@@ -6162,11 +7319,11 @@
         <v>569.65</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="R10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
     </row>
@@ -6184,7 +7341,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <f>B11*D11</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F11" t="s">
@@ -6218,11 +7375,11 @@
         <v>569.65</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="R11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
     </row>
@@ -6240,7 +7397,7 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <f>B12*D12</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F12" t="s">
@@ -6274,11 +7431,11 @@
         <v>569.65</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="R12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
     </row>
@@ -6296,7 +7453,7 @@
         <v>3</v>
       </c>
       <c r="E13">
-        <f>B13*D13</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="F13" t="s">
@@ -6330,11 +7487,11 @@
         <v>569.65</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="R13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>178</v>
       </c>
     </row>
@@ -6352,7 +7509,7 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <f>B14*D14</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F14" t="s">
@@ -6386,11 +7543,11 @@
         <v>569.65</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>467</v>
       </c>
       <c r="R14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>527</v>
       </c>
     </row>
@@ -6408,7 +7565,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <f>B15*D15</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F15" t="s">
@@ -6442,11 +7599,11 @@
         <v>569.65</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>467</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>527</v>
       </c>
     </row>
@@ -6464,7 +7621,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <f>B16*D16</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F16" t="s">
@@ -6498,11 +7655,11 @@
         <v>569.65</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>467</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>527</v>
       </c>
     </row>
@@ -6520,7 +7677,7 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <f>B17*D17</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F17" t="s">
@@ -6554,11 +7711,11 @@
         <v>31.93</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>212</v>
       </c>
       <c r="R17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>242</v>
       </c>
     </row>
@@ -6576,7 +7733,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <f>B18*D18</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F18" t="s">
@@ -6610,11 +7767,11 @@
         <v>31.93</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>142</v>
       </c>
       <c r="R18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
     </row>
@@ -6632,7 +7789,7 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <f>B19*D19</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F19" t="s">
@@ -6666,11 +7823,11 @@
         <v>31.93</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>142</v>
       </c>
       <c r="R19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
     </row>
@@ -6688,7 +7845,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <f>B20*D20</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F20" t="s">
@@ -6722,11 +7879,11 @@
         <v>31.93</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>142</v>
       </c>
       <c r="R20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
     </row>
@@ -6744,7 +7901,7 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <f>B21*D21</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F21" t="s">
@@ -6778,11 +7935,11 @@
         <v>438.6</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>337</v>
       </c>
       <c r="R21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>397</v>
       </c>
     </row>
@@ -6800,7 +7957,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <f>B22*D22</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F22" t="s">
@@ -6834,11 +7991,11 @@
         <v>158.25</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="R22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
     </row>
@@ -6856,7 +8013,7 @@
         <v>2</v>
       </c>
       <c r="E23">
-        <f>B23*D23</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F23" t="s">
@@ -6890,11 +8047,11 @@
         <v>158.25</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="R23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>87</v>
       </c>
     </row>
@@ -6912,7 +8069,7 @@
         <v>2</v>
       </c>
       <c r="E24">
-        <f>B24*D24</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="F24" t="s">
@@ -6946,11 +8103,11 @@
         <v>158.25</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
       <c r="R24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
     </row>
@@ -6968,7 +8125,7 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <f>B25*D25</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F25" t="s">
@@ -7002,11 +8159,11 @@
         <v>158.25</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="R25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
@@ -7024,7 +8181,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f>B26*D26</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F26" t="s">
@@ -7058,11 +8215,11 @@
         <v>158.25</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="R26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
@@ -7080,7 +8237,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <f>B27*D27</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F27" t="s">
@@ -7114,11 +8271,11 @@
         <v>158.25</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="R27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
@@ -7136,7 +8293,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <f>B28*D28</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F28" t="s">
@@ -7170,11 +8327,11 @@
         <v>158.25</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="R28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
@@ -7192,7 +8349,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <f>B29*D29</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F29" t="s">
@@ -7226,11 +8383,11 @@
         <v>158.25</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="R29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
@@ -7248,7 +8405,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <f>B30*D30</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F30" t="s">
@@ -7282,11 +8439,11 @@
         <v>158.25</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="R30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
@@ -7304,7 +8461,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <f>B31*D31</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F31" t="s">
@@ -7338,11 +8495,11 @@
         <v>158.25</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="R31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
@@ -7360,7 +8517,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <f>B32*D32</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F32" t="s">
@@ -7394,11 +8551,11 @@
         <v>158.25</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="R32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
@@ -7416,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <f>B33*D33</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F33" t="s">
@@ -7450,11 +8607,11 @@
         <v>158.25</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="R33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
@@ -7472,7 +8629,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <f>B34*D34</f>
+        <f t="shared" ref="E34:E65" si="3">B34*D34</f>
         <v>2</v>
       </c>
       <c r="F34" t="s">
@@ -7506,11 +8663,11 @@
         <v>158.25</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="R34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
@@ -7528,7 +8685,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <f>B35*D35</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F35" t="s">
@@ -7562,11 +8719,11 @@
         <v>158.25</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="R35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
@@ -7584,7 +8741,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <f>B36*D36</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F36" t="s">
@@ -7618,11 +8775,11 @@
         <v>158.25</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="R36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
@@ -7640,7 +8797,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <f>B37*D37</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F37" t="s">
@@ -7674,11 +8831,11 @@
         <v>158.25</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="R37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
@@ -7696,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <f>B38*D38</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F38" t="s">
@@ -7730,11 +8887,11 @@
         <v>158.25</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="R38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
@@ -7752,7 +8909,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <f>B39*D39</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F39" t="s">
@@ -7786,11 +8943,11 @@
         <v>158.25</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="R39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
@@ -7808,7 +8965,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <f>B40*D40</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F40" t="s">
@@ -7842,11 +8999,11 @@
         <v>158.25</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="R40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
@@ -7864,7 +9021,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <f>B41*D41</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F41" t="s">
@@ -7898,11 +9055,11 @@
         <v>438.6</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
       <c r="R41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>157</v>
       </c>
     </row>
@@ -7920,7 +9077,7 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <f>B42*D42</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F42" t="s">
@@ -7954,11 +9111,11 @@
         <v>158.25</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>107</v>
       </c>
       <c r="R42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>197</v>
       </c>
     </row>
@@ -7976,7 +9133,7 @@
         <v>3</v>
       </c>
       <c r="E43">
-        <f>B43*D43</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="F43" t="s">
@@ -8010,11 +9167,11 @@
         <v>2763.3</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>337</v>
       </c>
       <c r="R43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>427</v>
       </c>
     </row>
@@ -8032,7 +9189,7 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <f>B44*D44</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F44" t="s">
@@ -8066,11 +9223,11 @@
         <v>2763.3</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>527</v>
       </c>
       <c r="R44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>617</v>
       </c>
     </row>
@@ -8088,7 +9245,7 @@
         <v>2</v>
       </c>
       <c r="E45">
-        <f>B45*D45</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F45" t="s">
@@ -8122,11 +9279,11 @@
         <v>2763.3</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>527</v>
       </c>
       <c r="R45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>617</v>
       </c>
     </row>
@@ -8144,7 +9301,7 @@
         <v>2</v>
       </c>
       <c r="E46">
-        <f>B46*D46</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F46" t="s">
@@ -8178,11 +9335,11 @@
         <v>2763.3</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>527</v>
       </c>
       <c r="R46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>617</v>
       </c>
     </row>
@@ -8200,7 +9357,7 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <f>B47*D47</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="F47" t="s">
@@ -8234,11 +9391,11 @@
         <v>2763.3</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>517</v>
       </c>
       <c r="R47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>557</v>
       </c>
     </row>
@@ -8256,7 +9413,7 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <f>B48*D48</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="F48" t="s">
@@ -8290,11 +9447,11 @@
         <v>2763.3</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>517</v>
       </c>
       <c r="R48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>557</v>
       </c>
     </row>
@@ -8312,7 +9469,7 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <f>B49*D49</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="F49" t="s">
@@ -8346,11 +9503,11 @@
         <v>2763.3</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>517</v>
       </c>
       <c r="R49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>557</v>
       </c>
     </row>
@@ -8368,7 +9525,7 @@
         <v>2</v>
       </c>
       <c r="E50">
-        <f>B50*D50</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F50" t="s">
@@ -8402,11 +9559,11 @@
         <v>2763.3</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>297</v>
       </c>
       <c r="R50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>387</v>
       </c>
     </row>
@@ -8424,7 +9581,7 @@
         <v>2</v>
       </c>
       <c r="E51">
-        <f>B51*D51</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F51" t="s">
@@ -8458,11 +9615,11 @@
         <v>2763.3</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>297</v>
       </c>
       <c r="R51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>387</v>
       </c>
     </row>
@@ -8480,7 +9637,7 @@
         <v>2</v>
       </c>
       <c r="E52">
-        <f>B52*D52</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F52" t="s">
@@ -8514,11 +9671,11 @@
         <v>2763.3</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>297</v>
       </c>
       <c r="R52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>387</v>
       </c>
     </row>
@@ -8536,7 +9693,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <f>B53*D53</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F53" t="s">
@@ -8570,11 +9727,11 @@
         <v>193.9</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>497</v>
       </c>
       <c r="R53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>547</v>
       </c>
     </row>
@@ -8592,7 +9749,7 @@
         <v>3</v>
       </c>
       <c r="E54">
-        <f>B54*D54</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F54" t="s">
@@ -8626,11 +9783,11 @@
         <v>38376.9</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>567</v>
       </c>
       <c r="R54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>597</v>
       </c>
     </row>
@@ -8648,7 +9805,7 @@
         <v>2</v>
       </c>
       <c r="E55">
-        <f>B55*D55</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="F55" t="s">
@@ -8682,11 +9839,11 @@
         <v>2763.3</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>637</v>
       </c>
       <c r="R55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>697</v>
       </c>
     </row>
@@ -8704,7 +9861,7 @@
         <v>3</v>
       </c>
       <c r="E56">
-        <f>B56*D56</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="F56" t="s">
@@ -8738,11 +9895,11 @@
         <v>38376.9</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>587</v>
       </c>
       <c r="R56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>627</v>
       </c>
     </row>
@@ -8760,7 +9917,7 @@
         <v>3</v>
       </c>
       <c r="E57">
-        <f>B57*D57</f>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="F57" t="s">
@@ -8794,11 +9951,11 @@
         <v>38376.9</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>587</v>
       </c>
       <c r="R57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>627</v>
       </c>
     </row>
@@ -8816,7 +9973,7 @@
         <v>3</v>
       </c>
       <c r="E58">
-        <f>B58*D58</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="F58" t="s">
@@ -8850,11 +10007,11 @@
         <v>38376.9</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>647</v>
       </c>
       <c r="R58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>677</v>
       </c>
     </row>
@@ -8872,7 +10029,7 @@
         <v>3</v>
       </c>
       <c r="E59">
-        <f>B59*D59</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="F59" t="s">
@@ -8906,11 +10063,11 @@
         <v>38376.9</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>647</v>
       </c>
       <c r="R59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>677</v>
       </c>
     </row>
@@ -8928,7 +10085,7 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <f>B60*D60</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F60" t="s">
@@ -8962,11 +10119,11 @@
         <v>158.25</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="R60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>137</v>
       </c>
     </row>
@@ -8996,11 +10153,11 @@
         <v>30</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>337</v>
       </c>
       <c r="R61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>367</v>
       </c>
     </row>
@@ -9030,11 +10187,11 @@
         <v>30</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>337</v>
       </c>
       <c r="R62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>367</v>
       </c>
     </row>
@@ -9064,11 +10221,11 @@
         <v>30</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>337</v>
       </c>
       <c r="R63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>367</v>
       </c>
     </row>
@@ -9098,20 +10255,3594 @@
         <v>30</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>337</v>
       </c>
       <c r="R64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>367</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>370</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q131"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>761</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>826</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>891</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>956</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>300</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>90</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>14</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.46</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>697</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>762</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>827</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>892</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>957</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.246</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>698</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>763</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>828</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>893</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>958</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>1023</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>364</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>699</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>764</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>829</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>894</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>959</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>364</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>765</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>830</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>895</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>960</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>364</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.6</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>701</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>766</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>831</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>896</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>961</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>364</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>702</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>767</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>832</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>897</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>962</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>1027</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>364</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>703</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>768</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>833</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>898</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>963</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>364</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>704</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>769</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>834</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>899</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>964</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1029</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>364</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.6</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>705</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>770</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>835</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>900</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>965</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1030</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>364</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.6</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>706</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>771</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>836</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>901</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>966</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1031</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>364</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.6</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>707</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>772</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>837</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>902</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>967</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="P24" t="s">
+        <v>1032</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>364</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.6</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>708</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>773</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>838</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>903</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>968</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="s">
+        <v>1033</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>260</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>90</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.825</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>709</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>774</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>839</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>904</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>969</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="s">
+        <v>1034</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>260</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>90</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.825</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>710</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>775</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>840</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>905</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>970</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>260</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>90</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.825</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>711</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>776</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>841</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>906</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>971</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>364</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.246</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>712</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>777</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>842</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>907</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>972</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>364</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.246</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>713</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>778</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>843</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>908</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>973</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>364</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.246</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>714</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>779</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>844</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>909</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>974</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>364</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>0.246</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>715</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>780</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>845</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>910</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>975</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="P40" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>364</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>716</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>781</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>846</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>911</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>976</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="s">
+        <v>1041</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>364</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>717</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>782</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>847</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>912</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="M44" t="s">
+        <v>977</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="P44" t="s">
+        <v>1042</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>364</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>718</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>783</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>848</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="J46" t="s">
+        <v>913</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="M46" t="s">
+        <v>978</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="P46" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>364</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>719</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>784</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>849</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>914</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>979</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="P48" t="s">
+        <v>1044</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>364</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>720</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>785</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>850</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="J50" t="s">
+        <v>915</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="M50" t="s">
+        <v>980</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="P50" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>364</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>721</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>786</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>851</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="J52" t="s">
+        <v>916</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
+        <v>981</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="P52" t="s">
+        <v>1046</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>364</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>722</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>787</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>852</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>917</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="M54" t="s">
+        <v>982</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="P54" t="s">
+        <v>1047</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>364</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>723</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>788</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>853</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>918</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="M56" t="s">
+        <v>983</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="P56" t="s">
+        <v>1048</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>364</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>724</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>789</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>854</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>919</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="M58" t="s">
+        <v>984</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="P58" t="s">
+        <v>1049</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>364</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>725</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>790</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>855</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>920</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="M60" t="s">
+        <v>985</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="P60" t="s">
+        <v>1050</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>364</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>726</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>791</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>856</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>921</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="M62" t="s">
+        <v>986</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="P62" t="s">
+        <v>1051</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>364</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>727</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>792</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>857</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="J64" t="s">
+        <v>922</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="M64" t="s">
+        <v>987</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="P64" t="s">
+        <v>1052</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>364</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>728</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>793</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>858</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>923</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="M66" t="s">
+        <v>988</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="P66" t="s">
+        <v>1053</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>364</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>729</v>
+      </c>
+      <c r="D68" t="s">
+        <v>794</v>
+      </c>
+      <c r="G68" t="s">
+        <v>859</v>
+      </c>
+      <c r="J68" t="s">
+        <v>924</v>
+      </c>
+      <c r="M68" t="s">
+        <v>989</v>
+      </c>
+      <c r="P68" t="s">
+        <v>1054</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>364</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>730</v>
+      </c>
+      <c r="D70" t="s">
+        <v>795</v>
+      </c>
+      <c r="G70" t="s">
+        <v>860</v>
+      </c>
+      <c r="J70" t="s">
+        <v>925</v>
+      </c>
+      <c r="M70" t="s">
+        <v>990</v>
+      </c>
+      <c r="P70" t="s">
+        <v>1055</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>364</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>731</v>
+      </c>
+      <c r="D72" t="s">
+        <v>796</v>
+      </c>
+      <c r="G72" t="s">
+        <v>861</v>
+      </c>
+      <c r="J72" t="s">
+        <v>926</v>
+      </c>
+      <c r="M72" t="s">
+        <v>991</v>
+      </c>
+      <c r="P72" t="s">
+        <v>1056</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>364</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>732</v>
+      </c>
+      <c r="D74" t="s">
+        <v>797</v>
+      </c>
+      <c r="G74" t="s">
+        <v>862</v>
+      </c>
+      <c r="J74" t="s">
+        <v>927</v>
+      </c>
+      <c r="M74" t="s">
+        <v>992</v>
+      </c>
+      <c r="P74" t="s">
+        <v>1057</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>364</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>733</v>
+      </c>
+      <c r="D76" t="s">
+        <v>798</v>
+      </c>
+      <c r="G76" t="s">
+        <v>863</v>
+      </c>
+      <c r="J76" t="s">
+        <v>928</v>
+      </c>
+      <c r="M76" t="s">
+        <v>993</v>
+      </c>
+      <c r="P76" t="s">
+        <v>1058</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>364</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>734</v>
+      </c>
+      <c r="D78" t="s">
+        <v>799</v>
+      </c>
+      <c r="G78" t="s">
+        <v>864</v>
+      </c>
+      <c r="J78" t="s">
+        <v>929</v>
+      </c>
+      <c r="M78" t="s">
+        <v>994</v>
+      </c>
+      <c r="P78" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>364</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>735</v>
+      </c>
+      <c r="D80" t="s">
+        <v>800</v>
+      </c>
+      <c r="G80" t="s">
+        <v>865</v>
+      </c>
+      <c r="J80" t="s">
+        <v>930</v>
+      </c>
+      <c r="M80" t="s">
+        <v>995</v>
+      </c>
+      <c r="P80" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>364</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="M81">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>736</v>
+      </c>
+      <c r="D82" t="s">
+        <v>801</v>
+      </c>
+      <c r="G82" t="s">
+        <v>866</v>
+      </c>
+      <c r="J82" t="s">
+        <v>931</v>
+      </c>
+      <c r="M82" t="s">
+        <v>996</v>
+      </c>
+      <c r="P82" t="s">
+        <v>1061</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>364</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>737</v>
+      </c>
+      <c r="D84" t="s">
+        <v>802</v>
+      </c>
+      <c r="G84" t="s">
+        <v>867</v>
+      </c>
+      <c r="J84" t="s">
+        <v>932</v>
+      </c>
+      <c r="M84" t="s">
+        <v>997</v>
+      </c>
+      <c r="P84" t="s">
+        <v>1062</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>300</v>
+      </c>
+      <c r="D85">
+        <v>100</v>
+      </c>
+      <c r="G85">
+        <v>21</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>738</v>
+      </c>
+      <c r="D86" t="s">
+        <v>803</v>
+      </c>
+      <c r="G86" t="s">
+        <v>868</v>
+      </c>
+      <c r="J86" t="s">
+        <v>933</v>
+      </c>
+      <c r="M86" t="s">
+        <v>998</v>
+      </c>
+      <c r="P86" t="s">
+        <v>1063</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>364</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>739</v>
+      </c>
+      <c r="D88" t="s">
+        <v>804</v>
+      </c>
+      <c r="G88" t="s">
+        <v>869</v>
+      </c>
+      <c r="J88" t="s">
+        <v>934</v>
+      </c>
+      <c r="M88" t="s">
+        <v>999</v>
+      </c>
+      <c r="P88" t="s">
+        <v>1064</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>364</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>740</v>
+      </c>
+      <c r="D90" t="s">
+        <v>805</v>
+      </c>
+      <c r="G90" t="s">
+        <v>870</v>
+      </c>
+      <c r="J90" t="s">
+        <v>935</v>
+      </c>
+      <c r="M90" t="s">
+        <v>1000</v>
+      </c>
+      <c r="P90" t="s">
+        <v>1065</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>364</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>741</v>
+      </c>
+      <c r="D92" t="s">
+        <v>806</v>
+      </c>
+      <c r="G92" t="s">
+        <v>871</v>
+      </c>
+      <c r="J92" t="s">
+        <v>936</v>
+      </c>
+      <c r="M92" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P92" t="s">
+        <v>1066</v>
+      </c>
+      <c r="Q92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>270</v>
+      </c>
+      <c r="D93">
+        <v>150</v>
+      </c>
+      <c r="G93">
+        <v>10</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>742</v>
+      </c>
+      <c r="D94" t="s">
+        <v>807</v>
+      </c>
+      <c r="G94" t="s">
+        <v>872</v>
+      </c>
+      <c r="J94" t="s">
+        <v>937</v>
+      </c>
+      <c r="M94" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P94" t="s">
+        <v>1067</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>270</v>
+      </c>
+      <c r="D95">
+        <v>150</v>
+      </c>
+      <c r="G95">
+        <v>10</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>743</v>
+      </c>
+      <c r="D96" t="s">
+        <v>808</v>
+      </c>
+      <c r="G96" t="s">
+        <v>873</v>
+      </c>
+      <c r="J96" t="s">
+        <v>938</v>
+      </c>
+      <c r="M96" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P96" t="s">
+        <v>1068</v>
+      </c>
+      <c r="Q96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>270</v>
+      </c>
+      <c r="D97">
+        <v>150</v>
+      </c>
+      <c r="G97">
+        <v>10</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>744</v>
+      </c>
+      <c r="D98" t="s">
+        <v>809</v>
+      </c>
+      <c r="G98" t="s">
+        <v>874</v>
+      </c>
+      <c r="J98" t="s">
+        <v>939</v>
+      </c>
+      <c r="M98" t="s">
+        <v>1004</v>
+      </c>
+      <c r="P98" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>364</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>745</v>
+      </c>
+      <c r="D100" t="s">
+        <v>810</v>
+      </c>
+      <c r="G100" t="s">
+        <v>875</v>
+      </c>
+      <c r="J100" t="s">
+        <v>940</v>
+      </c>
+      <c r="M100" t="s">
+        <v>1005</v>
+      </c>
+      <c r="P100" t="s">
+        <v>1070</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>364</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>746</v>
+      </c>
+      <c r="D102" t="s">
+        <v>811</v>
+      </c>
+      <c r="G102" t="s">
+        <v>876</v>
+      </c>
+      <c r="J102" t="s">
+        <v>941</v>
+      </c>
+      <c r="M102" t="s">
+        <v>1006</v>
+      </c>
+      <c r="P102" t="s">
+        <v>1071</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>364</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>747</v>
+      </c>
+      <c r="D104" t="s">
+        <v>812</v>
+      </c>
+      <c r="G104" t="s">
+        <v>877</v>
+      </c>
+      <c r="J104" t="s">
+        <v>942</v>
+      </c>
+      <c r="M104" t="s">
+        <v>1007</v>
+      </c>
+      <c r="P104" t="s">
+        <v>1072</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>224</v>
+      </c>
+      <c r="D105">
+        <v>120</v>
+      </c>
+      <c r="G105">
+        <v>3</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="M105">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>748</v>
+      </c>
+      <c r="D106" t="s">
+        <v>813</v>
+      </c>
+      <c r="G106" t="s">
+        <v>878</v>
+      </c>
+      <c r="J106" t="s">
+        <v>943</v>
+      </c>
+      <c r="M106" t="s">
+        <v>1008</v>
+      </c>
+      <c r="P106" t="s">
+        <v>1073</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>364</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="M107">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>749</v>
+      </c>
+      <c r="D108" t="s">
+        <v>814</v>
+      </c>
+      <c r="G108" t="s">
+        <v>879</v>
+      </c>
+      <c r="J108" t="s">
+        <v>944</v>
+      </c>
+      <c r="M108" t="s">
+        <v>1009</v>
+      </c>
+      <c r="P108" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>270</v>
+      </c>
+      <c r="D109">
+        <v>180</v>
+      </c>
+      <c r="G109">
+        <v>30</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>750</v>
+      </c>
+      <c r="D110" t="s">
+        <v>815</v>
+      </c>
+      <c r="G110" t="s">
+        <v>880</v>
+      </c>
+      <c r="J110" t="s">
+        <v>945</v>
+      </c>
+      <c r="M110" t="s">
+        <v>1010</v>
+      </c>
+      <c r="P110" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Q110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>300</v>
+      </c>
+      <c r="D111">
+        <v>100</v>
+      </c>
+      <c r="G111">
+        <v>21</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>751</v>
+      </c>
+      <c r="D112" t="s">
+        <v>816</v>
+      </c>
+      <c r="G112" t="s">
+        <v>881</v>
+      </c>
+      <c r="J112" t="s">
+        <v>946</v>
+      </c>
+      <c r="M112" t="s">
+        <v>1011</v>
+      </c>
+      <c r="P112" t="s">
+        <v>1076</v>
+      </c>
+      <c r="Q112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>300</v>
+      </c>
+      <c r="D113">
+        <v>100</v>
+      </c>
+      <c r="G113">
+        <v>21</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>752</v>
+      </c>
+      <c r="D114" t="s">
+        <v>817</v>
+      </c>
+      <c r="G114" t="s">
+        <v>882</v>
+      </c>
+      <c r="J114" t="s">
+        <v>947</v>
+      </c>
+      <c r="M114" t="s">
+        <v>1012</v>
+      </c>
+      <c r="P114" t="s">
+        <v>1077</v>
+      </c>
+      <c r="Q114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>330</v>
+      </c>
+      <c r="D115">
+        <v>90</v>
+      </c>
+      <c r="G115">
+        <v>14</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>753</v>
+      </c>
+      <c r="D116" t="s">
+        <v>818</v>
+      </c>
+      <c r="G116" t="s">
+        <v>883</v>
+      </c>
+      <c r="J116" t="s">
+        <v>948</v>
+      </c>
+      <c r="M116" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P116" t="s">
+        <v>1078</v>
+      </c>
+      <c r="Q116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>330</v>
+      </c>
+      <c r="D117">
+        <v>90</v>
+      </c>
+      <c r="G117">
+        <v>14</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>754</v>
+      </c>
+      <c r="D118" t="s">
+        <v>819</v>
+      </c>
+      <c r="G118" t="s">
+        <v>884</v>
+      </c>
+      <c r="J118" t="s">
+        <v>949</v>
+      </c>
+      <c r="M118" t="s">
+        <v>1014</v>
+      </c>
+      <c r="P118" t="s">
+        <v>1079</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>364</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>755</v>
+      </c>
+      <c r="D120" t="s">
+        <v>820</v>
+      </c>
+      <c r="G120" t="s">
+        <v>885</v>
+      </c>
+      <c r="J120" t="s">
+        <v>950</v>
+      </c>
+      <c r="M120" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>330</v>
+      </c>
+      <c r="D121">
+        <v>60</v>
+      </c>
+      <c r="G121">
+        <v>14</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="M121">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>756</v>
+      </c>
+      <c r="D122" t="s">
+        <v>821</v>
+      </c>
+      <c r="G122" t="s">
+        <v>886</v>
+      </c>
+      <c r="J122" t="s">
+        <v>951</v>
+      </c>
+      <c r="M122" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>330</v>
+      </c>
+      <c r="D123">
+        <v>60</v>
+      </c>
+      <c r="G123">
+        <v>14</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>757</v>
+      </c>
+      <c r="D124" t="s">
+        <v>822</v>
+      </c>
+      <c r="G124" t="s">
+        <v>887</v>
+      </c>
+      <c r="J124" t="s">
+        <v>952</v>
+      </c>
+      <c r="M124" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>364</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>758</v>
+      </c>
+      <c r="D126" t="s">
+        <v>823</v>
+      </c>
+      <c r="G126" t="s">
+        <v>888</v>
+      </c>
+      <c r="J126" t="s">
+        <v>953</v>
+      </c>
+      <c r="M126" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>364</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>759</v>
+      </c>
+      <c r="D128" t="s">
+        <v>824</v>
+      </c>
+      <c r="G128" t="s">
+        <v>889</v>
+      </c>
+      <c r="J128" t="s">
+        <v>954</v>
+      </c>
+      <c r="M128" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>364</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>760</v>
+      </c>
+      <c r="D130" t="s">
+        <v>825</v>
+      </c>
+      <c r="G130" t="s">
+        <v>890</v>
+      </c>
+      <c r="J130" t="s">
+        <v>955</v>
+      </c>
+      <c r="M130" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>364</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="P1:S118">
+    <sortCondition ref="R1:R118"/>
+    <sortCondition ref="S1:S118"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/R/BHrecruits.xlsx
+++ b/R/BHrecruits.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="554" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BH" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="1082">
   <si>
     <t>BHalpha_ANC</t>
   </si>
@@ -3319,7 +3319,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3632,7 +3662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -6790,10 +6820,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R64"/>
+  <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="Q79" sqref="Q79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6806,7 +6836,7 @@
     <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
@@ -8629,7 +8659,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:E65" si="3">B34*D34</f>
+        <f t="shared" ref="E34:E60" si="3">B34*D34</f>
         <v>2</v>
       </c>
       <c r="F34" t="s">
@@ -10263,9 +10293,2957 @@
         <v>367</v>
       </c>
     </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>267</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>268</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E125" si="4">B67*D67</f>
+        <v>2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>269</v>
+      </c>
+      <c r="G67">
+        <v>210</v>
+      </c>
+      <c r="H67" t="s">
+        <v>270</v>
+      </c>
+      <c r="I67">
+        <v>7</v>
+      </c>
+      <c r="J67" t="s">
+        <v>271</v>
+      </c>
+      <c r="K67">
+        <v>30</v>
+      </c>
+      <c r="L67" t="s">
+        <v>272</v>
+      </c>
+      <c r="M67">
+        <v>60</v>
+      </c>
+      <c r="N67" t="s">
+        <v>392</v>
+      </c>
+      <c r="O67">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>274</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>275</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>276</v>
+      </c>
+      <c r="G68">
+        <v>290</v>
+      </c>
+      <c r="H68" t="s">
+        <v>277</v>
+      </c>
+      <c r="I68">
+        <v>7</v>
+      </c>
+      <c r="J68" t="s">
+        <v>278</v>
+      </c>
+      <c r="K68">
+        <v>30</v>
+      </c>
+      <c r="L68" t="s">
+        <v>279</v>
+      </c>
+      <c r="M68">
+        <v>60</v>
+      </c>
+      <c r="N68" t="s">
+        <v>357</v>
+      </c>
+      <c r="O68">
+        <v>27900.25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>281</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>282</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F69" t="s">
+        <v>283</v>
+      </c>
+      <c r="G69">
+        <v>180</v>
+      </c>
+      <c r="H69" t="s">
+        <v>284</v>
+      </c>
+      <c r="I69">
+        <v>7</v>
+      </c>
+      <c r="J69" t="s">
+        <v>285</v>
+      </c>
+      <c r="K69">
+        <v>60</v>
+      </c>
+      <c r="L69" t="s">
+        <v>286</v>
+      </c>
+      <c r="M69">
+        <v>90</v>
+      </c>
+      <c r="N69" t="s">
+        <v>371</v>
+      </c>
+      <c r="O69">
+        <v>21083.35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>288</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>289</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>290</v>
+      </c>
+      <c r="G70">
+        <v>180</v>
+      </c>
+      <c r="H70" t="s">
+        <v>291</v>
+      </c>
+      <c r="I70">
+        <v>7</v>
+      </c>
+      <c r="J70" t="s">
+        <v>292</v>
+      </c>
+      <c r="K70">
+        <v>30</v>
+      </c>
+      <c r="L70" t="s">
+        <v>293</v>
+      </c>
+      <c r="M70">
+        <v>30</v>
+      </c>
+      <c r="N70" t="s">
+        <v>294</v>
+      </c>
+      <c r="O70">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>295</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>296</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F71" t="s">
+        <v>297</v>
+      </c>
+      <c r="G71">
+        <v>180</v>
+      </c>
+      <c r="H71" t="s">
+        <v>298</v>
+      </c>
+      <c r="I71">
+        <v>7</v>
+      </c>
+      <c r="J71" t="s">
+        <v>299</v>
+      </c>
+      <c r="K71">
+        <v>80</v>
+      </c>
+      <c r="L71" t="s">
+        <v>300</v>
+      </c>
+      <c r="M71">
+        <v>90</v>
+      </c>
+      <c r="N71" t="s">
+        <v>588</v>
+      </c>
+      <c r="O71">
+        <v>5678.88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>302</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>303</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F72" t="s">
+        <v>304</v>
+      </c>
+      <c r="G72">
+        <v>270</v>
+      </c>
+      <c r="H72" t="s">
+        <v>305</v>
+      </c>
+      <c r="I72">
+        <v>7</v>
+      </c>
+      <c r="J72" t="s">
+        <v>306</v>
+      </c>
+      <c r="K72">
+        <v>80</v>
+      </c>
+      <c r="L72" t="s">
+        <v>307</v>
+      </c>
+      <c r="M72">
+        <v>90</v>
+      </c>
+      <c r="N72" t="s">
+        <v>399</v>
+      </c>
+      <c r="O72">
+        <v>17.809999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>309</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>310</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F73" t="s">
+        <v>311</v>
+      </c>
+      <c r="G73">
+        <v>30</v>
+      </c>
+      <c r="H73" t="s">
+        <v>312</v>
+      </c>
+      <c r="I73">
+        <v>7</v>
+      </c>
+      <c r="J73" t="s">
+        <v>313</v>
+      </c>
+      <c r="K73">
+        <v>80</v>
+      </c>
+      <c r="L73" t="s">
+        <v>314</v>
+      </c>
+      <c r="M73">
+        <v>90</v>
+      </c>
+      <c r="N73" t="s">
+        <v>462</v>
+      </c>
+      <c r="O73">
+        <v>134.86000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>316</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>317</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F74" t="s">
+        <v>318</v>
+      </c>
+      <c r="G74">
+        <v>100</v>
+      </c>
+      <c r="H74" t="s">
+        <v>319</v>
+      </c>
+      <c r="I74">
+        <v>7</v>
+      </c>
+      <c r="J74" t="s">
+        <v>320</v>
+      </c>
+      <c r="K74">
+        <v>120</v>
+      </c>
+      <c r="L74" t="s">
+        <v>321</v>
+      </c>
+      <c r="M74">
+        <v>90</v>
+      </c>
+      <c r="N74" t="s">
+        <v>385</v>
+      </c>
+      <c r="O74">
+        <v>11.95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>323</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>324</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F75" t="s">
+        <v>325</v>
+      </c>
+      <c r="G75">
+        <v>180</v>
+      </c>
+      <c r="H75" t="s">
+        <v>326</v>
+      </c>
+      <c r="I75">
+        <v>7</v>
+      </c>
+      <c r="J75" t="s">
+        <v>327</v>
+      </c>
+      <c r="K75">
+        <v>80</v>
+      </c>
+      <c r="L75" t="s">
+        <v>328</v>
+      </c>
+      <c r="M75">
+        <v>90</v>
+      </c>
+      <c r="N75" t="s">
+        <v>658</v>
+      </c>
+      <c r="O75">
+        <v>3525480.78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>330</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>331</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F76" t="s">
+        <v>332</v>
+      </c>
+      <c r="G76">
+        <v>100</v>
+      </c>
+      <c r="H76" t="s">
+        <v>333</v>
+      </c>
+      <c r="I76">
+        <v>7</v>
+      </c>
+      <c r="J76" t="s">
+        <v>334</v>
+      </c>
+      <c r="K76">
+        <v>80</v>
+      </c>
+      <c r="L76" t="s">
+        <v>335</v>
+      </c>
+      <c r="M76">
+        <v>90</v>
+      </c>
+      <c r="N76" t="s">
+        <v>427</v>
+      </c>
+      <c r="O76">
+        <v>763.46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>337</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>338</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F77" t="s">
+        <v>339</v>
+      </c>
+      <c r="G77">
+        <v>180</v>
+      </c>
+      <c r="H77" t="s">
+        <v>340</v>
+      </c>
+      <c r="I77">
+        <v>7</v>
+      </c>
+      <c r="J77" t="s">
+        <v>341</v>
+      </c>
+      <c r="K77">
+        <v>80</v>
+      </c>
+      <c r="L77" t="s">
+        <v>342</v>
+      </c>
+      <c r="M77">
+        <v>90</v>
+      </c>
+      <c r="N77" t="s">
+        <v>560</v>
+      </c>
+      <c r="O77">
+        <v>795.66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>344</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>345</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F78" t="s">
+        <v>346</v>
+      </c>
+      <c r="G78">
+        <v>180</v>
+      </c>
+      <c r="H78" t="s">
+        <v>347</v>
+      </c>
+      <c r="I78">
+        <v>7</v>
+      </c>
+      <c r="J78" t="s">
+        <v>348</v>
+      </c>
+      <c r="K78">
+        <v>80</v>
+      </c>
+      <c r="L78" t="s">
+        <v>349</v>
+      </c>
+      <c r="M78">
+        <v>90</v>
+      </c>
+      <c r="N78" t="s">
+        <v>504</v>
+      </c>
+      <c r="O78">
+        <v>95.78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>351</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>352</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="F79" t="s">
+        <v>353</v>
+      </c>
+      <c r="G79">
+        <v>180</v>
+      </c>
+      <c r="H79" t="s">
+        <v>354</v>
+      </c>
+      <c r="I79">
+        <v>7</v>
+      </c>
+      <c r="J79" t="s">
+        <v>355</v>
+      </c>
+      <c r="K79">
+        <v>180</v>
+      </c>
+      <c r="L79" t="s">
+        <v>356</v>
+      </c>
+      <c r="M79">
+        <v>60</v>
+      </c>
+      <c r="N79" t="s">
+        <v>581</v>
+      </c>
+      <c r="O79">
+        <v>21317.17</v>
+      </c>
+      <c r="Q79">
+        <f>G79+K79+I79</f>
+        <v>367</v>
+      </c>
+      <c r="R79">
+        <f>Q79+M79</f>
+        <v>427</v>
+      </c>
+      <c r="S79">
+        <f>R79-365-I79</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>358</v>
+      </c>
+      <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>359</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="F80" t="s">
+        <v>360</v>
+      </c>
+      <c r="G80">
+        <v>180</v>
+      </c>
+      <c r="H80" t="s">
+        <v>361</v>
+      </c>
+      <c r="I80">
+        <v>7</v>
+      </c>
+      <c r="J80" t="s">
+        <v>362</v>
+      </c>
+      <c r="K80">
+        <v>180</v>
+      </c>
+      <c r="L80" t="s">
+        <v>363</v>
+      </c>
+      <c r="M80">
+        <v>60</v>
+      </c>
+      <c r="N80" t="s">
+        <v>420</v>
+      </c>
+      <c r="O80">
+        <v>82.43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>365</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>366</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="F81" t="s">
+        <v>367</v>
+      </c>
+      <c r="G81">
+        <v>180</v>
+      </c>
+      <c r="H81" t="s">
+        <v>368</v>
+      </c>
+      <c r="I81">
+        <v>7</v>
+      </c>
+      <c r="J81" t="s">
+        <v>369</v>
+      </c>
+      <c r="K81">
+        <v>180</v>
+      </c>
+      <c r="L81" t="s">
+        <v>370</v>
+      </c>
+      <c r="M81">
+        <v>60</v>
+      </c>
+      <c r="N81" t="s">
+        <v>539</v>
+      </c>
+      <c r="O81">
+        <v>54.03</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>372</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>373</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>374</v>
+      </c>
+      <c r="G82">
+        <v>180</v>
+      </c>
+      <c r="H82" t="s">
+        <v>375</v>
+      </c>
+      <c r="I82">
+        <v>7</v>
+      </c>
+      <c r="J82" t="s">
+        <v>376</v>
+      </c>
+      <c r="K82">
+        <v>25</v>
+      </c>
+      <c r="L82" t="s">
+        <v>377</v>
+      </c>
+      <c r="M82">
+        <v>30</v>
+      </c>
+      <c r="N82" t="s">
+        <v>350</v>
+      </c>
+      <c r="O82">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>379</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>380</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F83" t="s">
+        <v>381</v>
+      </c>
+      <c r="G83">
+        <v>100</v>
+      </c>
+      <c r="H83" t="s">
+        <v>382</v>
+      </c>
+      <c r="I83">
+        <v>7</v>
+      </c>
+      <c r="J83" t="s">
+        <v>383</v>
+      </c>
+      <c r="K83">
+        <v>35</v>
+      </c>
+      <c r="L83" t="s">
+        <v>384</v>
+      </c>
+      <c r="M83">
+        <v>40</v>
+      </c>
+      <c r="N83" t="s">
+        <v>343</v>
+      </c>
+      <c r="O83">
+        <v>24.13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>386</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>387</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F84" t="s">
+        <v>388</v>
+      </c>
+      <c r="G84">
+        <v>100</v>
+      </c>
+      <c r="H84" t="s">
+        <v>389</v>
+      </c>
+      <c r="I84">
+        <v>7</v>
+      </c>
+      <c r="J84" t="s">
+        <v>390</v>
+      </c>
+      <c r="K84">
+        <v>35</v>
+      </c>
+      <c r="L84" t="s">
+        <v>391</v>
+      </c>
+      <c r="M84">
+        <v>40</v>
+      </c>
+      <c r="N84" t="s">
+        <v>406</v>
+      </c>
+      <c r="O84">
+        <v>154.37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>393</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>394</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F85" t="s">
+        <v>395</v>
+      </c>
+      <c r="G85">
+        <v>100</v>
+      </c>
+      <c r="H85" t="s">
+        <v>396</v>
+      </c>
+      <c r="I85">
+        <v>7</v>
+      </c>
+      <c r="J85" t="s">
+        <v>397</v>
+      </c>
+      <c r="K85">
+        <v>35</v>
+      </c>
+      <c r="L85" t="s">
+        <v>398</v>
+      </c>
+      <c r="M85">
+        <v>40</v>
+      </c>
+      <c r="N85" t="s">
+        <v>546</v>
+      </c>
+      <c r="O85">
+        <v>143.11000000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>400</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>401</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F86" t="s">
+        <v>402</v>
+      </c>
+      <c r="G86">
+        <v>280</v>
+      </c>
+      <c r="H86" t="s">
+        <v>403</v>
+      </c>
+      <c r="I86">
+        <v>7</v>
+      </c>
+      <c r="J86" t="s">
+        <v>404</v>
+      </c>
+      <c r="K86">
+        <v>60</v>
+      </c>
+      <c r="L86" t="s">
+        <v>405</v>
+      </c>
+      <c r="M86">
+        <v>60</v>
+      </c>
+      <c r="N86" t="s">
+        <v>329</v>
+      </c>
+      <c r="O86">
+        <v>3825.02</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>407</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>408</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>409</v>
+      </c>
+      <c r="G87">
+        <v>270</v>
+      </c>
+      <c r="H87" t="s">
+        <v>410</v>
+      </c>
+      <c r="I87">
+        <v>7</v>
+      </c>
+      <c r="J87" t="s">
+        <v>411</v>
+      </c>
+      <c r="K87">
+        <v>30</v>
+      </c>
+      <c r="L87" t="s">
+        <v>412</v>
+      </c>
+      <c r="M87">
+        <v>40</v>
+      </c>
+      <c r="N87" t="s">
+        <v>280</v>
+      </c>
+      <c r="O87">
+        <v>13.34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>414</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>415</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F88" t="s">
+        <v>416</v>
+      </c>
+      <c r="G88">
+        <v>10</v>
+      </c>
+      <c r="H88" t="s">
+        <v>417</v>
+      </c>
+      <c r="I88">
+        <v>7</v>
+      </c>
+      <c r="J88" t="s">
+        <v>418</v>
+      </c>
+      <c r="K88">
+        <v>30</v>
+      </c>
+      <c r="L88" t="s">
+        <v>419</v>
+      </c>
+      <c r="M88">
+        <v>40</v>
+      </c>
+      <c r="N88" t="s">
+        <v>679</v>
+      </c>
+      <c r="O88">
+        <v>82.92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>421</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>422</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>423</v>
+      </c>
+      <c r="G89">
+        <v>20</v>
+      </c>
+      <c r="H89" t="s">
+        <v>424</v>
+      </c>
+      <c r="I89">
+        <v>7</v>
+      </c>
+      <c r="J89" t="s">
+        <v>425</v>
+      </c>
+      <c r="K89">
+        <v>60</v>
+      </c>
+      <c r="L89" t="s">
+        <v>426</v>
+      </c>
+      <c r="M89">
+        <v>90</v>
+      </c>
+      <c r="N89" t="s">
+        <v>616</v>
+      </c>
+      <c r="O89">
+        <v>207.63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>428</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>429</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="F90" t="s">
+        <v>430</v>
+      </c>
+      <c r="G90">
+        <v>150</v>
+      </c>
+      <c r="H90" t="s">
+        <v>431</v>
+      </c>
+      <c r="I90">
+        <v>7</v>
+      </c>
+      <c r="J90" t="s">
+        <v>432</v>
+      </c>
+      <c r="K90">
+        <v>30</v>
+      </c>
+      <c r="L90" t="s">
+        <v>433</v>
+      </c>
+      <c r="M90">
+        <v>90</v>
+      </c>
+      <c r="N90" t="s">
+        <v>273</v>
+      </c>
+      <c r="O90">
+        <v>18.11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>435</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>436</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F91" t="s">
+        <v>437</v>
+      </c>
+      <c r="G91">
+        <v>150</v>
+      </c>
+      <c r="H91" t="s">
+        <v>438</v>
+      </c>
+      <c r="I91">
+        <v>7</v>
+      </c>
+      <c r="J91" t="s">
+        <v>439</v>
+      </c>
+      <c r="K91">
+        <v>30</v>
+      </c>
+      <c r="L91" t="s">
+        <v>440</v>
+      </c>
+      <c r="M91">
+        <v>90</v>
+      </c>
+      <c r="N91" t="s">
+        <v>413</v>
+      </c>
+      <c r="O91">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>442</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>443</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F92" t="s">
+        <v>444</v>
+      </c>
+      <c r="G92">
+        <v>10</v>
+      </c>
+      <c r="H92" t="s">
+        <v>445</v>
+      </c>
+      <c r="I92">
+        <v>7</v>
+      </c>
+      <c r="J92" t="s">
+        <v>446</v>
+      </c>
+      <c r="K92">
+        <v>30</v>
+      </c>
+      <c r="L92" t="s">
+        <v>447</v>
+      </c>
+      <c r="M92">
+        <v>90</v>
+      </c>
+      <c r="N92" t="s">
+        <v>378</v>
+      </c>
+      <c r="O92">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>449</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>450</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F93" t="s">
+        <v>451</v>
+      </c>
+      <c r="G93">
+        <v>180</v>
+      </c>
+      <c r="H93" t="s">
+        <v>452</v>
+      </c>
+      <c r="I93">
+        <v>7</v>
+      </c>
+      <c r="J93" t="s">
+        <v>453</v>
+      </c>
+      <c r="K93">
+        <v>30</v>
+      </c>
+      <c r="L93" t="s">
+        <v>454</v>
+      </c>
+      <c r="M93">
+        <v>90</v>
+      </c>
+      <c r="N93" t="s">
+        <v>441</v>
+      </c>
+      <c r="O93">
+        <v>32.65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>456</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>457</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F94" t="s">
+        <v>458</v>
+      </c>
+      <c r="G94">
+        <v>150</v>
+      </c>
+      <c r="H94" t="s">
+        <v>459</v>
+      </c>
+      <c r="I94">
+        <v>7</v>
+      </c>
+      <c r="J94" t="s">
+        <v>460</v>
+      </c>
+      <c r="K94">
+        <v>30</v>
+      </c>
+      <c r="L94" t="s">
+        <v>461</v>
+      </c>
+      <c r="M94">
+        <v>90</v>
+      </c>
+      <c r="N94" t="s">
+        <v>490</v>
+      </c>
+      <c r="O94">
+        <v>127.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>463</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>464</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F95" t="s">
+        <v>465</v>
+      </c>
+      <c r="G95">
+        <v>150</v>
+      </c>
+      <c r="H95" t="s">
+        <v>466</v>
+      </c>
+      <c r="I95">
+        <v>7</v>
+      </c>
+      <c r="J95" t="s">
+        <v>467</v>
+      </c>
+      <c r="K95">
+        <v>30</v>
+      </c>
+      <c r="L95" t="s">
+        <v>468</v>
+      </c>
+      <c r="M95">
+        <v>90</v>
+      </c>
+      <c r="N95" t="s">
+        <v>637</v>
+      </c>
+      <c r="O95">
+        <v>11810.41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>470</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>471</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F96" t="s">
+        <v>472</v>
+      </c>
+      <c r="G96">
+        <v>150</v>
+      </c>
+      <c r="H96" t="s">
+        <v>473</v>
+      </c>
+      <c r="I96">
+        <v>7</v>
+      </c>
+      <c r="J96" t="s">
+        <v>474</v>
+      </c>
+      <c r="K96">
+        <v>30</v>
+      </c>
+      <c r="L96" t="s">
+        <v>475</v>
+      </c>
+      <c r="M96">
+        <v>90</v>
+      </c>
+      <c r="N96" t="s">
+        <v>336</v>
+      </c>
+      <c r="O96">
+        <v>77.02</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>477</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>478</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F97" t="s">
+        <v>479</v>
+      </c>
+      <c r="G97">
+        <v>100</v>
+      </c>
+      <c r="H97" t="s">
+        <v>480</v>
+      </c>
+      <c r="I97">
+        <v>7</v>
+      </c>
+      <c r="J97" t="s">
+        <v>481</v>
+      </c>
+      <c r="K97">
+        <v>30</v>
+      </c>
+      <c r="L97" t="s">
+        <v>482</v>
+      </c>
+      <c r="M97">
+        <v>90</v>
+      </c>
+      <c r="N97" t="s">
+        <v>448</v>
+      </c>
+      <c r="O97">
+        <v>621.19000000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>484</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>485</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F98" t="s">
+        <v>486</v>
+      </c>
+      <c r="G98">
+        <v>100</v>
+      </c>
+      <c r="H98" t="s">
+        <v>487</v>
+      </c>
+      <c r="I98">
+        <v>7</v>
+      </c>
+      <c r="J98" t="s">
+        <v>488</v>
+      </c>
+      <c r="K98">
+        <v>30</v>
+      </c>
+      <c r="L98" t="s">
+        <v>489</v>
+      </c>
+      <c r="M98">
+        <v>90</v>
+      </c>
+      <c r="N98" t="s">
+        <v>595</v>
+      </c>
+      <c r="O98">
+        <v>7165.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>491</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>492</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>493</v>
+      </c>
+      <c r="G99">
+        <v>220</v>
+      </c>
+      <c r="H99" t="s">
+        <v>494</v>
+      </c>
+      <c r="I99">
+        <v>7</v>
+      </c>
+      <c r="J99" t="s">
+        <v>495</v>
+      </c>
+      <c r="K99">
+        <v>30</v>
+      </c>
+      <c r="L99" t="s">
+        <v>496</v>
+      </c>
+      <c r="M99">
+        <v>90</v>
+      </c>
+      <c r="N99" t="s">
+        <v>602</v>
+      </c>
+      <c r="O99">
+        <v>21158.53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>498</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>499</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F100" t="s">
+        <v>500</v>
+      </c>
+      <c r="G100">
+        <v>180</v>
+      </c>
+      <c r="H100" t="s">
+        <v>501</v>
+      </c>
+      <c r="I100">
+        <v>7</v>
+      </c>
+      <c r="J100" t="s">
+        <v>502</v>
+      </c>
+      <c r="K100">
+        <v>30</v>
+      </c>
+      <c r="L100" t="s">
+        <v>503</v>
+      </c>
+      <c r="M100">
+        <v>90</v>
+      </c>
+      <c r="N100" t="s">
+        <v>483</v>
+      </c>
+      <c r="O100">
+        <v>8.73</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>505</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>506</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>507</v>
+      </c>
+      <c r="G101">
+        <v>180</v>
+      </c>
+      <c r="H101" t="s">
+        <v>508</v>
+      </c>
+      <c r="I101">
+        <v>7</v>
+      </c>
+      <c r="J101" t="s">
+        <v>509</v>
+      </c>
+      <c r="K101">
+        <v>30</v>
+      </c>
+      <c r="L101" t="s">
+        <v>510</v>
+      </c>
+      <c r="M101">
+        <v>90</v>
+      </c>
+      <c r="N101" t="s">
+        <v>644</v>
+      </c>
+      <c r="O101">
+        <v>12248.15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>512</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>513</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
+        <v>514</v>
+      </c>
+      <c r="G102">
+        <v>180</v>
+      </c>
+      <c r="H102" t="s">
+        <v>515</v>
+      </c>
+      <c r="I102">
+        <v>7</v>
+      </c>
+      <c r="J102" t="s">
+        <v>516</v>
+      </c>
+      <c r="K102">
+        <v>30</v>
+      </c>
+      <c r="L102" t="s">
+        <v>517</v>
+      </c>
+      <c r="M102">
+        <v>90</v>
+      </c>
+      <c r="N102" t="s">
+        <v>455</v>
+      </c>
+      <c r="O102">
+        <v>111.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>519</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>520</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F103" t="s">
+        <v>521</v>
+      </c>
+      <c r="G103">
+        <v>10</v>
+      </c>
+      <c r="H103" t="s">
+        <v>522</v>
+      </c>
+      <c r="I103">
+        <v>7</v>
+      </c>
+      <c r="J103" t="s">
+        <v>523</v>
+      </c>
+      <c r="K103">
+        <v>30</v>
+      </c>
+      <c r="L103" t="s">
+        <v>524</v>
+      </c>
+      <c r="M103">
+        <v>90</v>
+      </c>
+      <c r="N103" t="s">
+        <v>651</v>
+      </c>
+      <c r="O103">
+        <v>4310573.47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>526</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>527</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F104" t="s">
+        <v>528</v>
+      </c>
+      <c r="G104">
+        <v>10</v>
+      </c>
+      <c r="H104" t="s">
+        <v>529</v>
+      </c>
+      <c r="I104">
+        <v>7</v>
+      </c>
+      <c r="J104" t="s">
+        <v>530</v>
+      </c>
+      <c r="K104">
+        <v>30</v>
+      </c>
+      <c r="L104" t="s">
+        <v>531</v>
+      </c>
+      <c r="M104">
+        <v>90</v>
+      </c>
+      <c r="N104" t="s">
+        <v>497</v>
+      </c>
+      <c r="O104">
+        <v>1035.6400000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>533</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>534</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F105" t="s">
+        <v>535</v>
+      </c>
+      <c r="G105">
+        <v>10</v>
+      </c>
+      <c r="H105" t="s">
+        <v>536</v>
+      </c>
+      <c r="I105">
+        <v>7</v>
+      </c>
+      <c r="J105" t="s">
+        <v>537</v>
+      </c>
+      <c r="K105">
+        <v>30</v>
+      </c>
+      <c r="L105" t="s">
+        <v>538</v>
+      </c>
+      <c r="M105">
+        <v>90</v>
+      </c>
+      <c r="N105" t="s">
+        <v>630</v>
+      </c>
+      <c r="O105">
+        <v>54.32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>540</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>541</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F106" t="s">
+        <v>542</v>
+      </c>
+      <c r="G106">
+        <v>30</v>
+      </c>
+      <c r="H106" t="s">
+        <v>543</v>
+      </c>
+      <c r="I106">
+        <v>7</v>
+      </c>
+      <c r="J106" t="s">
+        <v>544</v>
+      </c>
+      <c r="K106">
+        <v>30</v>
+      </c>
+      <c r="L106" t="s">
+        <v>545</v>
+      </c>
+      <c r="M106">
+        <v>90</v>
+      </c>
+      <c r="N106" t="s">
+        <v>469</v>
+      </c>
+      <c r="O106">
+        <v>56.67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>547</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>548</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F107" t="s">
+        <v>549</v>
+      </c>
+      <c r="G107">
+        <v>60</v>
+      </c>
+      <c r="H107" t="s">
+        <v>550</v>
+      </c>
+      <c r="I107">
+        <v>7</v>
+      </c>
+      <c r="J107" t="s">
+        <v>551</v>
+      </c>
+      <c r="K107">
+        <v>40</v>
+      </c>
+      <c r="L107" t="s">
+        <v>552</v>
+      </c>
+      <c r="M107">
+        <v>90</v>
+      </c>
+      <c r="N107" t="s">
+        <v>532</v>
+      </c>
+      <c r="O107">
+        <v>476.74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>554</v>
+      </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
+        <v>555</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="F108" t="s">
+        <v>556</v>
+      </c>
+      <c r="G108">
+        <v>180</v>
+      </c>
+      <c r="H108" t="s">
+        <v>557</v>
+      </c>
+      <c r="I108">
+        <v>7</v>
+      </c>
+      <c r="J108" t="s">
+        <v>558</v>
+      </c>
+      <c r="K108">
+        <v>270</v>
+      </c>
+      <c r="L108" t="s">
+        <v>559</v>
+      </c>
+      <c r="M108">
+        <v>90</v>
+      </c>
+      <c r="N108" t="s">
+        <v>434</v>
+      </c>
+      <c r="O108">
+        <v>23.28</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>561</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>562</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>563</v>
+      </c>
+      <c r="G109">
+        <v>160</v>
+      </c>
+      <c r="H109" t="s">
+        <v>564</v>
+      </c>
+      <c r="I109">
+        <v>7</v>
+      </c>
+      <c r="J109" t="s">
+        <v>565</v>
+      </c>
+      <c r="K109">
+        <v>360</v>
+      </c>
+      <c r="L109" t="s">
+        <v>566</v>
+      </c>
+      <c r="M109">
+        <v>90</v>
+      </c>
+      <c r="N109" t="s">
+        <v>623</v>
+      </c>
+      <c r="O109">
+        <v>1201.82</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>568</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>569</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
+        <v>570</v>
+      </c>
+      <c r="G110">
+        <v>160</v>
+      </c>
+      <c r="H110" t="s">
+        <v>571</v>
+      </c>
+      <c r="I110">
+        <v>7</v>
+      </c>
+      <c r="J110" t="s">
+        <v>572</v>
+      </c>
+      <c r="K110">
+        <v>360</v>
+      </c>
+      <c r="L110" t="s">
+        <v>573</v>
+      </c>
+      <c r="M110">
+        <v>90</v>
+      </c>
+      <c r="N110" t="s">
+        <v>567</v>
+      </c>
+      <c r="O110">
+        <v>436.41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>575</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>576</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>577</v>
+      </c>
+      <c r="G111">
+        <v>160</v>
+      </c>
+      <c r="H111" t="s">
+        <v>578</v>
+      </c>
+      <c r="I111">
+        <v>7</v>
+      </c>
+      <c r="J111" t="s">
+        <v>579</v>
+      </c>
+      <c r="K111">
+        <v>360</v>
+      </c>
+      <c r="L111" t="s">
+        <v>580</v>
+      </c>
+      <c r="M111">
+        <v>90</v>
+      </c>
+      <c r="N111" t="s">
+        <v>574</v>
+      </c>
+      <c r="O111">
+        <v>3884.39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>582</v>
+      </c>
+      <c r="B112">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>583</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F112" t="s">
+        <v>584</v>
+      </c>
+      <c r="G112">
+        <v>150</v>
+      </c>
+      <c r="H112" t="s">
+        <v>585</v>
+      </c>
+      <c r="I112">
+        <v>7</v>
+      </c>
+      <c r="J112" t="s">
+        <v>586</v>
+      </c>
+      <c r="K112">
+        <v>360</v>
+      </c>
+      <c r="L112" t="s">
+        <v>587</v>
+      </c>
+      <c r="M112">
+        <v>40</v>
+      </c>
+      <c r="N112" t="s">
+        <v>511</v>
+      </c>
+      <c r="O112">
+        <v>363.33</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>589</v>
+      </c>
+      <c r="B113">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>590</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F113" t="s">
+        <v>591</v>
+      </c>
+      <c r="G113">
+        <v>150</v>
+      </c>
+      <c r="H113" t="s">
+        <v>592</v>
+      </c>
+      <c r="I113">
+        <v>7</v>
+      </c>
+      <c r="J113" t="s">
+        <v>593</v>
+      </c>
+      <c r="K113">
+        <v>360</v>
+      </c>
+      <c r="L113" t="s">
+        <v>594</v>
+      </c>
+      <c r="M113">
+        <v>40</v>
+      </c>
+      <c r="N113" t="s">
+        <v>308</v>
+      </c>
+      <c r="O113">
+        <v>414.82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>596</v>
+      </c>
+      <c r="B114">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>597</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="F114" t="s">
+        <v>598</v>
+      </c>
+      <c r="G114">
+        <v>150</v>
+      </c>
+      <c r="H114" t="s">
+        <v>599</v>
+      </c>
+      <c r="I114">
+        <v>7</v>
+      </c>
+      <c r="J114" t="s">
+        <v>600</v>
+      </c>
+      <c r="K114">
+        <v>360</v>
+      </c>
+      <c r="L114" t="s">
+        <v>601</v>
+      </c>
+      <c r="M114">
+        <v>40</v>
+      </c>
+      <c r="N114" t="s">
+        <v>665</v>
+      </c>
+      <c r="O114">
+        <v>19168.38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>603</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>604</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F115" t="s">
+        <v>605</v>
+      </c>
+      <c r="G115">
+        <v>190</v>
+      </c>
+      <c r="H115" t="s">
+        <v>606</v>
+      </c>
+      <c r="I115">
+        <v>90</v>
+      </c>
+      <c r="J115" t="s">
+        <v>607</v>
+      </c>
+      <c r="K115">
+        <v>270</v>
+      </c>
+      <c r="L115" t="s">
+        <v>608</v>
+      </c>
+      <c r="M115">
+        <v>90</v>
+      </c>
+      <c r="N115" t="s">
+        <v>518</v>
+      </c>
+      <c r="O115">
+        <v>94.64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>610</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116" t="s">
+        <v>611</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F116" t="s">
+        <v>612</v>
+      </c>
+      <c r="G116">
+        <v>190</v>
+      </c>
+      <c r="H116" t="s">
+        <v>613</v>
+      </c>
+      <c r="I116">
+        <v>90</v>
+      </c>
+      <c r="J116" t="s">
+        <v>614</v>
+      </c>
+      <c r="K116">
+        <v>84</v>
+      </c>
+      <c r="L116" t="s">
+        <v>615</v>
+      </c>
+      <c r="M116">
+        <v>90</v>
+      </c>
+      <c r="N116" t="s">
+        <v>364</v>
+      </c>
+      <c r="O116">
+        <v>2399.61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>617</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>618</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="F117" t="s">
+        <v>619</v>
+      </c>
+      <c r="G117">
+        <v>190</v>
+      </c>
+      <c r="H117" t="s">
+        <v>620</v>
+      </c>
+      <c r="I117">
+        <v>90</v>
+      </c>
+      <c r="J117" t="s">
+        <v>621</v>
+      </c>
+      <c r="K117">
+        <v>84</v>
+      </c>
+      <c r="L117" t="s">
+        <v>622</v>
+      </c>
+      <c r="M117">
+        <v>90</v>
+      </c>
+      <c r="N117" t="s">
+        <v>672</v>
+      </c>
+      <c r="O117">
+        <v>1139292.8400000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>624</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118" t="s">
+        <v>625</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>626</v>
+      </c>
+      <c r="G118">
+        <v>290</v>
+      </c>
+      <c r="H118" t="s">
+        <v>627</v>
+      </c>
+      <c r="I118">
+        <v>7</v>
+      </c>
+      <c r="J118" t="s">
+        <v>628</v>
+      </c>
+      <c r="K118">
+        <v>84</v>
+      </c>
+      <c r="L118" t="s">
+        <v>629</v>
+      </c>
+      <c r="M118">
+        <v>50</v>
+      </c>
+      <c r="N118" t="s">
+        <v>476</v>
+      </c>
+      <c r="O118">
+        <v>477.73</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>631</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>632</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="F119" t="s">
+        <v>633</v>
+      </c>
+      <c r="G119">
+        <v>230</v>
+      </c>
+      <c r="H119" t="s">
+        <v>634</v>
+      </c>
+      <c r="I119">
+        <v>7</v>
+      </c>
+      <c r="J119" t="s">
+        <v>635</v>
+      </c>
+      <c r="K119">
+        <v>330</v>
+      </c>
+      <c r="L119" t="s">
+        <v>636</v>
+      </c>
+      <c r="M119">
+        <v>30</v>
+      </c>
+      <c r="N119" t="s">
+        <v>287</v>
+      </c>
+      <c r="O119">
+        <v>98.32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>638</v>
+      </c>
+      <c r="B120">
+        <v>8</v>
+      </c>
+      <c r="C120" t="s">
+        <v>639</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="F120" t="s">
+        <v>640</v>
+      </c>
+      <c r="G120">
+        <v>270</v>
+      </c>
+      <c r="H120" t="s">
+        <v>641</v>
+      </c>
+      <c r="I120">
+        <v>7</v>
+      </c>
+      <c r="J120" t="s">
+        <v>642</v>
+      </c>
+      <c r="K120">
+        <v>360</v>
+      </c>
+      <c r="L120" t="s">
+        <v>643</v>
+      </c>
+      <c r="M120">
+        <v>60</v>
+      </c>
+      <c r="N120" t="s">
+        <v>315</v>
+      </c>
+      <c r="O120">
+        <v>213.49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>645</v>
+      </c>
+      <c r="B121">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>646</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="F121" t="s">
+        <v>647</v>
+      </c>
+      <c r="G121">
+        <v>220</v>
+      </c>
+      <c r="H121" t="s">
+        <v>648</v>
+      </c>
+      <c r="I121">
+        <v>7</v>
+      </c>
+      <c r="J121" t="s">
+        <v>649</v>
+      </c>
+      <c r="K121">
+        <v>360</v>
+      </c>
+      <c r="L121" t="s">
+        <v>650</v>
+      </c>
+      <c r="M121">
+        <v>40</v>
+      </c>
+      <c r="N121" t="s">
+        <v>525</v>
+      </c>
+      <c r="O121">
+        <v>82.83</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>652</v>
+      </c>
+      <c r="B122">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>653</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="F122" t="s">
+        <v>654</v>
+      </c>
+      <c r="G122">
+        <v>220</v>
+      </c>
+      <c r="H122" t="s">
+        <v>655</v>
+      </c>
+      <c r="I122">
+        <v>7</v>
+      </c>
+      <c r="J122" t="s">
+        <v>656</v>
+      </c>
+      <c r="K122">
+        <v>360</v>
+      </c>
+      <c r="L122" t="s">
+        <v>657</v>
+      </c>
+      <c r="M122">
+        <v>40</v>
+      </c>
+      <c r="N122" t="s">
+        <v>301</v>
+      </c>
+      <c r="O122">
+        <v>38.090000000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>659</v>
+      </c>
+      <c r="B123">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>660</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="F123" t="s">
+        <v>661</v>
+      </c>
+      <c r="G123">
+        <v>280</v>
+      </c>
+      <c r="H123" t="s">
+        <v>662</v>
+      </c>
+      <c r="I123">
+        <v>7</v>
+      </c>
+      <c r="J123" t="s">
+        <v>663</v>
+      </c>
+      <c r="K123">
+        <v>360</v>
+      </c>
+      <c r="L123" t="s">
+        <v>664</v>
+      </c>
+      <c r="M123">
+        <v>30</v>
+      </c>
+      <c r="N123" t="s">
+        <v>609</v>
+      </c>
+      <c r="O123">
+        <v>879.7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>666</v>
+      </c>
+      <c r="B124">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>667</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="F124" t="s">
+        <v>668</v>
+      </c>
+      <c r="G124">
+        <v>280</v>
+      </c>
+      <c r="H124" t="s">
+        <v>669</v>
+      </c>
+      <c r="I124">
+        <v>7</v>
+      </c>
+      <c r="J124" t="s">
+        <v>670</v>
+      </c>
+      <c r="K124">
+        <v>360</v>
+      </c>
+      <c r="L124" t="s">
+        <v>671</v>
+      </c>
+      <c r="M124">
+        <v>30</v>
+      </c>
+      <c r="N124" t="s">
+        <v>322</v>
+      </c>
+      <c r="O124">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>673</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>674</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F125" t="s">
+        <v>675</v>
+      </c>
+      <c r="G125">
+        <v>10</v>
+      </c>
+      <c r="H125" t="s">
+        <v>676</v>
+      </c>
+      <c r="I125">
+        <v>7</v>
+      </c>
+      <c r="J125" t="s">
+        <v>677</v>
+      </c>
+      <c r="K125">
+        <v>30</v>
+      </c>
+      <c r="L125" t="s">
+        <v>678</v>
+      </c>
+      <c r="M125">
+        <v>90</v>
+      </c>
+      <c r="N125" t="s">
+        <v>553</v>
+      </c>
+      <c r="O125">
+        <v>27.42</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F126" t="s">
+        <v>680</v>
+      </c>
+      <c r="G126">
+        <v>300</v>
+      </c>
+      <c r="H126" t="s">
+        <v>681</v>
+      </c>
+      <c r="I126">
+        <v>7</v>
+      </c>
+      <c r="J126" t="s">
+        <v>682</v>
+      </c>
+      <c r="K126">
+        <v>30</v>
+      </c>
+      <c r="L126" t="s">
+        <v>683</v>
+      </c>
+      <c r="M126">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F127" t="s">
+        <v>684</v>
+      </c>
+      <c r="G127">
+        <v>300</v>
+      </c>
+      <c r="H127" t="s">
+        <v>685</v>
+      </c>
+      <c r="I127">
+        <v>7</v>
+      </c>
+      <c r="J127" t="s">
+        <v>686</v>
+      </c>
+      <c r="K127">
+        <v>30</v>
+      </c>
+      <c r="L127" t="s">
+        <v>687</v>
+      </c>
+      <c r="M127">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F128" t="s">
+        <v>688</v>
+      </c>
+      <c r="G128">
+        <v>300</v>
+      </c>
+      <c r="H128" t="s">
+        <v>689</v>
+      </c>
+      <c r="I128">
+        <v>7</v>
+      </c>
+      <c r="J128" t="s">
+        <v>690</v>
+      </c>
+      <c r="K128">
+        <v>30</v>
+      </c>
+      <c r="L128" t="s">
+        <v>691</v>
+      </c>
+      <c r="M128">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="129" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F129" t="s">
+        <v>692</v>
+      </c>
+      <c r="G129">
+        <v>300</v>
+      </c>
+      <c r="H129" t="s">
+        <v>693</v>
+      </c>
+      <c r="I129">
+        <v>7</v>
+      </c>
+      <c r="J129" t="s">
+        <v>694</v>
+      </c>
+      <c r="K129">
+        <v>30</v>
+      </c>
+      <c r="L129" t="s">
+        <v>695</v>
+      </c>
+      <c r="M129">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>370</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10277,8 +13255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q131"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="G9" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13843,6 +16821,16 @@
     <sortCondition ref="R1:R118"/>
     <sortCondition ref="S1:S118"/>
   </sortState>
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/R/BHrecruits.xlsx
+++ b/R/BHrecruits.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan.morse\Documents\GitHub\atneus_RM\R\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="554" activeTab="1"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="spawn" sheetId="2" r:id="rId2"/>
     <sheet name="mig" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -3277,7 +3272,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss\ AM/PM"/>
   </numFmts>
@@ -3290,12 +3285,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3310,16 +3311,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3416,7 +3438,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3451,7 +3473,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6822,8 +6844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="Q79" sqref="Q79"/>
+    <sheetView tabSelected="1" topLeftCell="D56" workbookViewId="0">
+      <selection activeCell="S68" sqref="S68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10340,53 +10362,77 @@
       <c r="O67">
         <v>1.1599999999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="Q67">
+        <f>G67+K67</f>
+        <v>240</v>
+      </c>
+      <c r="R67">
+        <f>Q67+I67</f>
+        <v>247</v>
+      </c>
+      <c r="S67">
+        <f>R67+M67</f>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B68" s="4">
+        <v>1</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="4">
         <v>2</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="4">
         <v>290</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="4">
         <v>7</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="4">
         <v>30</v>
       </c>
-      <c r="L68" t="s">
+      <c r="L68" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="4">
         <v>60</v>
       </c>
-      <c r="N68" t="s">
+      <c r="N68" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="4">
         <v>27900.25</v>
+      </c>
+      <c r="Q68" s="4">
+        <f t="shared" ref="Q68:Q125" si="5">G68+K68</f>
+        <v>320</v>
+      </c>
+      <c r="R68" s="4">
+        <f t="shared" ref="R68:R78" si="6">Q68+I68</f>
+        <v>327</v>
+      </c>
+      <c r="S68" s="4">
+        <f t="shared" ref="S68:S125" si="7">R68+M68</f>
+        <v>387</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -10436,6 +10482,18 @@
       <c r="O69">
         <v>21083.35</v>
       </c>
+      <c r="Q69">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="6"/>
+        <v>247</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="7"/>
+        <v>337</v>
+      </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -10484,6 +10542,18 @@
       <c r="O70">
         <v>99.5</v>
       </c>
+      <c r="Q70">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="6"/>
+        <v>217</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="7"/>
+        <v>247</v>
+      </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -10532,6 +10602,18 @@
       <c r="O71">
         <v>5678.88</v>
       </c>
+      <c r="Q71">
+        <f t="shared" si="5"/>
+        <v>260</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="6"/>
+        <v>267</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="7"/>
+        <v>357</v>
+      </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -10580,6 +10662,18 @@
       <c r="O72">
         <v>17.809999999999999</v>
       </c>
+      <c r="Q72">
+        <f t="shared" si="5"/>
+        <v>350</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="6"/>
+        <v>357</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="7"/>
+        <v>447</v>
+      </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -10628,6 +10722,18 @@
       <c r="O73">
         <v>134.86000000000001</v>
       </c>
+      <c r="Q73">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="6"/>
+        <v>117</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="7"/>
+        <v>207</v>
+      </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
@@ -10676,6 +10782,18 @@
       <c r="O74">
         <v>11.95</v>
       </c>
+      <c r="Q74">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="6"/>
+        <v>227</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="7"/>
+        <v>317</v>
+      </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
@@ -10724,6 +10842,18 @@
       <c r="O75">
         <v>3525480.78</v>
       </c>
+      <c r="Q75">
+        <f t="shared" si="5"/>
+        <v>260</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="6"/>
+        <v>267</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="7"/>
+        <v>357</v>
+      </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -10772,6 +10902,18 @@
       <c r="O76">
         <v>763.46</v>
       </c>
+      <c r="Q76">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="6"/>
+        <v>187</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="7"/>
+        <v>277</v>
+      </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
@@ -10820,6 +10962,18 @@
       <c r="O77">
         <v>795.66</v>
       </c>
+      <c r="Q77">
+        <f t="shared" si="5"/>
+        <v>260</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="6"/>
+        <v>267</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="7"/>
+        <v>357</v>
+      </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -10868,164 +11022,200 @@
       <c r="O78">
         <v>95.78</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="Q78">
+        <f t="shared" si="5"/>
+        <v>260</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="6"/>
+        <v>267</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="7"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="4">
         <v>3</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="4">
         <v>3</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="4">
         <v>180</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="4">
         <v>7</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="4">
         <v>180</v>
       </c>
-      <c r="L79" t="s">
+      <c r="L79" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="4">
         <v>60</v>
       </c>
-      <c r="N79" t="s">
+      <c r="N79" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="4">
         <v>21317.17</v>
       </c>
-      <c r="Q79">
-        <f>G79+K79+I79</f>
+      <c r="Q79" s="4">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="R79" s="4">
+        <f>Q79+I79</f>
         <v>367</v>
       </c>
-      <c r="R79">
-        <f>Q79+M79</f>
+      <c r="S79" s="4">
+        <f t="shared" si="7"/>
         <v>427</v>
       </c>
-      <c r="S79">
-        <f>R79-365-I79</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    </row>
+    <row r="80" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="4">
         <v>3</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="4">
         <v>3</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="4">
         <v>180</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="4">
         <v>7</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J80" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="4">
         <v>180</v>
       </c>
-      <c r="L80" t="s">
+      <c r="L80" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="4">
         <v>60</v>
       </c>
-      <c r="N80" t="s">
+      <c r="N80" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="4">
         <v>82.43</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="Q80" s="4">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="R80" s="4">
+        <f t="shared" ref="R80:R125" si="8">Q80+I80</f>
+        <v>367</v>
+      </c>
+      <c r="S80" s="4">
+        <f t="shared" si="7"/>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="4">
         <v>3</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="4">
         <v>3</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="4">
         <v>180</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="4">
         <v>7</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J81" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="4">
         <v>180</v>
       </c>
-      <c r="L81" t="s">
+      <c r="L81" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="4">
         <v>60</v>
       </c>
-      <c r="N81" t="s">
+      <c r="N81" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="4">
         <v>54.03</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q81" s="4">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="R81" s="4">
+        <f t="shared" si="8"/>
+        <v>367</v>
+      </c>
+      <c r="S81" s="4">
+        <f t="shared" si="7"/>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>372</v>
       </c>
@@ -11072,8 +11262,20 @@
       <c r="O82">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <f t="shared" si="5"/>
+        <v>205</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="8"/>
+        <v>212</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="7"/>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>379</v>
       </c>
@@ -11120,8 +11322,20 @@
       <c r="O83">
         <v>24.13</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="8"/>
+        <v>142</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="7"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>386</v>
       </c>
@@ -11168,8 +11382,20 @@
       <c r="O84">
         <v>154.37</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="8"/>
+        <v>142</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="7"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>393</v>
       </c>
@@ -11216,56 +11442,80 @@
       <c r="O85">
         <v>143.11000000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="Q85">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="8"/>
+        <v>142</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="7"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B86" s="4">
+        <v>1</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="4">
         <v>3</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="4">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="4">
         <v>280</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="4">
         <v>7</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="4">
         <v>60</v>
       </c>
-      <c r="L86" t="s">
+      <c r="L86" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="4">
         <v>60</v>
       </c>
-      <c r="N86" t="s">
+      <c r="N86" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="O86">
+      <c r="O86" s="4">
         <v>3825.02</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q86" s="4">
+        <f t="shared" si="5"/>
+        <v>340</v>
+      </c>
+      <c r="R86" s="4">
+        <f t="shared" si="8"/>
+        <v>347</v>
+      </c>
+      <c r="S86" s="4">
+        <f t="shared" si="7"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>407</v>
       </c>
@@ -11312,8 +11562,20 @@
       <c r="O87">
         <v>13.34</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q87">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="8"/>
+        <v>307</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="7"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>414</v>
       </c>
@@ -11360,8 +11622,20 @@
       <c r="O88">
         <v>82.92</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q88">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>421</v>
       </c>
@@ -11408,8 +11682,20 @@
       <c r="O89">
         <v>207.63</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q89">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="7"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>428</v>
       </c>
@@ -11456,8 +11742,20 @@
       <c r="O90">
         <v>18.11</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q90">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="8"/>
+        <v>187</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="7"/>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>435</v>
       </c>
@@ -11504,8 +11802,20 @@
       <c r="O91">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q91">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="8"/>
+        <v>187</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="7"/>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>442</v>
       </c>
@@ -11552,8 +11862,20 @@
       <c r="O92">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q92">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="7"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>449</v>
       </c>
@@ -11600,8 +11922,20 @@
       <c r="O93">
         <v>32.65</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q93">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="8"/>
+        <v>217</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="7"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>456</v>
       </c>
@@ -11648,8 +11982,20 @@
       <c r="O94">
         <v>127.1</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q94">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="8"/>
+        <v>187</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="7"/>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>463</v>
       </c>
@@ -11696,8 +12042,20 @@
       <c r="O95">
         <v>11810.41</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q95">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="8"/>
+        <v>187</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="7"/>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>470</v>
       </c>
@@ -11744,8 +12102,20 @@
       <c r="O96">
         <v>77.02</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q96">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="8"/>
+        <v>187</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="7"/>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>477</v>
       </c>
@@ -11792,8 +12162,20 @@
       <c r="O97">
         <v>621.19000000000005</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q97">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="8"/>
+        <v>137</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="7"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>484</v>
       </c>
@@ -11840,8 +12222,20 @@
       <c r="O98">
         <v>7165.5</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q98">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="8"/>
+        <v>137</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="7"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>491</v>
       </c>
@@ -11888,8 +12282,20 @@
       <c r="O99">
         <v>21158.53</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q99">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="8"/>
+        <v>257</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="7"/>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>498</v>
       </c>
@@ -11936,8 +12342,20 @@
       <c r="O100">
         <v>8.73</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q100">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="8"/>
+        <v>217</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="7"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>505</v>
       </c>
@@ -11984,8 +12402,20 @@
       <c r="O101">
         <v>12248.15</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q101">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="8"/>
+        <v>217</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="7"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>512</v>
       </c>
@@ -12032,8 +12462,20 @@
       <c r="O102">
         <v>111.1</v>
       </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q102">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="8"/>
+        <v>217</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="7"/>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>519</v>
       </c>
@@ -12080,8 +12522,20 @@
       <c r="O103">
         <v>4310573.47</v>
       </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q103">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="7"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>526</v>
       </c>
@@ -12128,8 +12582,20 @@
       <c r="O104">
         <v>1035.6400000000001</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q104">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="7"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>533</v>
       </c>
@@ -12176,8 +12642,20 @@
       <c r="O105">
         <v>54.32</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q105">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="7"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>540</v>
       </c>
@@ -12224,8 +12702,20 @@
       <c r="O106">
         <v>56.67</v>
       </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q106">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="8"/>
+        <v>67</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="7"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>547</v>
       </c>
@@ -12272,56 +12762,80 @@
       <c r="O107">
         <v>476.74</v>
       </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="Q107">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="8"/>
+        <v>107</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="7"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="4">
         <v>4</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="4">
         <v>3</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="4">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="4">
         <v>180</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="4">
         <v>7</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J108" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="4">
         <v>270</v>
       </c>
-      <c r="L108" t="s">
+      <c r="L108" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="M108">
+      <c r="M108" s="4">
         <v>90</v>
       </c>
-      <c r="N108" t="s">
+      <c r="N108" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="O108">
+      <c r="O108" s="4">
         <v>23.28</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q108" s="4">
+        <f t="shared" si="5"/>
+        <v>450</v>
+      </c>
+      <c r="R108" s="4">
+        <f t="shared" si="8"/>
+        <v>457</v>
+      </c>
+      <c r="S108" s="4">
+        <f t="shared" si="7"/>
+        <v>547</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>561</v>
       </c>
@@ -12368,8 +12882,20 @@
       <c r="O109">
         <v>1201.82</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q109">
+        <f t="shared" si="5"/>
+        <v>520</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="8"/>
+        <v>527</v>
+      </c>
+      <c r="S109">
+        <f t="shared" si="7"/>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>568</v>
       </c>
@@ -12416,8 +12942,20 @@
       <c r="O110">
         <v>436.41</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q110">
+        <f t="shared" si="5"/>
+        <v>520</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="8"/>
+        <v>527</v>
+      </c>
+      <c r="S110">
+        <f t="shared" si="7"/>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>575</v>
       </c>
@@ -12464,8 +13002,20 @@
       <c r="O111">
         <v>3884.39</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q111">
+        <f t="shared" si="5"/>
+        <v>520</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="8"/>
+        <v>527</v>
+      </c>
+      <c r="S111">
+        <f t="shared" si="7"/>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>582</v>
       </c>
@@ -12512,8 +13062,20 @@
       <c r="O112">
         <v>363.33</v>
       </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q112">
+        <f t="shared" si="5"/>
+        <v>510</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="8"/>
+        <v>517</v>
+      </c>
+      <c r="S112">
+        <f t="shared" si="7"/>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>589</v>
       </c>
@@ -12560,8 +13122,20 @@
       <c r="O113">
         <v>414.82</v>
       </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q113">
+        <f t="shared" si="5"/>
+        <v>510</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="8"/>
+        <v>517</v>
+      </c>
+      <c r="S113">
+        <f t="shared" si="7"/>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>596</v>
       </c>
@@ -12608,248 +13182,320 @@
       <c r="O114">
         <v>19168.38</v>
       </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="Q114">
+        <f t="shared" si="5"/>
+        <v>510</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="8"/>
+        <v>517</v>
+      </c>
+      <c r="S114">
+        <f t="shared" si="7"/>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="4">
         <v>3</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="4">
         <v>2</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="4">
         <v>190</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="4">
         <v>90</v>
       </c>
-      <c r="J115" t="s">
+      <c r="J115" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="4">
         <v>270</v>
       </c>
-      <c r="L115" t="s">
+      <c r="L115" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="M115">
+      <c r="M115" s="4">
         <v>90</v>
       </c>
-      <c r="N115" t="s">
+      <c r="N115" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="O115">
+      <c r="O115" s="4">
         <v>94.64</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="Q115" s="4">
+        <f t="shared" si="5"/>
+        <v>460</v>
+      </c>
+      <c r="R115" s="4">
+        <f t="shared" si="8"/>
+        <v>550</v>
+      </c>
+      <c r="S115" s="4">
+        <f t="shared" si="7"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="4">
         <v>3</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="4">
         <v>2</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F116" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="4">
         <v>190</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="4">
         <v>90</v>
       </c>
-      <c r="J116" t="s">
+      <c r="J116" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="4">
         <v>84</v>
       </c>
-      <c r="L116" t="s">
+      <c r="L116" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="M116">
+      <c r="M116" s="4">
         <v>90</v>
       </c>
-      <c r="N116" t="s">
+      <c r="N116" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="O116">
+      <c r="O116" s="4">
         <v>2399.61</v>
       </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="Q116" s="4">
+        <f t="shared" si="5"/>
+        <v>274</v>
+      </c>
+      <c r="R116" s="4">
+        <f t="shared" si="8"/>
+        <v>364</v>
+      </c>
+      <c r="S116" s="4">
+        <f t="shared" si="7"/>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="4">
         <v>3</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="4">
         <v>2</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F117" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="4">
         <v>190</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H117" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="4">
         <v>90</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J117" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="4">
         <v>84</v>
       </c>
-      <c r="L117" t="s">
+      <c r="L117" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="M117">
+      <c r="M117" s="4">
         <v>90</v>
       </c>
-      <c r="N117" t="s">
+      <c r="N117" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="O117">
+      <c r="O117" s="4">
         <v>1139292.8400000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="Q117" s="4">
+        <f t="shared" si="5"/>
+        <v>274</v>
+      </c>
+      <c r="R117" s="4">
+        <f t="shared" si="8"/>
+        <v>364</v>
+      </c>
+      <c r="S117" s="4">
+        <f t="shared" si="7"/>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="4">
         <v>2</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118">
+      <c r="D118" s="4">
+        <v>1</v>
+      </c>
+      <c r="E118" s="4">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="4">
         <v>290</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H118" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="4">
         <v>7</v>
       </c>
-      <c r="J118" t="s">
+      <c r="J118" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="4">
         <v>84</v>
       </c>
-      <c r="L118" t="s">
+      <c r="L118" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="M118">
+      <c r="M118" s="4">
         <v>50</v>
       </c>
-      <c r="N118" t="s">
+      <c r="N118" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="O118">
+      <c r="O118" s="4">
         <v>477.73</v>
       </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="Q118" s="4">
+        <f t="shared" si="5"/>
+        <v>374</v>
+      </c>
+      <c r="R118" s="4">
+        <f t="shared" si="8"/>
+        <v>381</v>
+      </c>
+      <c r="S118" s="4">
+        <f t="shared" si="7"/>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="4">
         <v>3</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="4">
         <v>3</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="4">
         <v>230</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H119" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="4">
         <v>7</v>
       </c>
-      <c r="J119" t="s">
+      <c r="J119" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="4">
         <v>330</v>
       </c>
-      <c r="L119" t="s">
+      <c r="L119" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="M119">
+      <c r="M119" s="4">
         <v>30</v>
       </c>
-      <c r="N119" t="s">
+      <c r="N119" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="O119">
+      <c r="O119" s="4">
         <v>98.32</v>
       </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q119" s="4">
+        <f t="shared" si="5"/>
+        <v>560</v>
+      </c>
+      <c r="R119" s="4">
+        <f t="shared" si="8"/>
+        <v>567</v>
+      </c>
+      <c r="S119" s="4">
+        <f t="shared" si="7"/>
+        <v>597</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>638</v>
       </c>
@@ -12896,8 +13542,20 @@
       <c r="O120">
         <v>213.49</v>
       </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q120">
+        <f t="shared" si="5"/>
+        <v>630</v>
+      </c>
+      <c r="R120">
+        <f t="shared" si="8"/>
+        <v>637</v>
+      </c>
+      <c r="S120">
+        <f t="shared" si="7"/>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>645</v>
       </c>
@@ -12944,8 +13602,20 @@
       <c r="O121">
         <v>82.83</v>
       </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q121">
+        <f t="shared" si="5"/>
+        <v>580</v>
+      </c>
+      <c r="R121">
+        <f t="shared" si="8"/>
+        <v>587</v>
+      </c>
+      <c r="S121">
+        <f t="shared" si="7"/>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>652</v>
       </c>
@@ -12992,8 +13662,20 @@
       <c r="O122">
         <v>38.090000000000003</v>
       </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q122">
+        <f t="shared" si="5"/>
+        <v>580</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="8"/>
+        <v>587</v>
+      </c>
+      <c r="S122">
+        <f t="shared" si="7"/>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>659</v>
       </c>
@@ -13040,8 +13722,20 @@
       <c r="O123">
         <v>879.7</v>
       </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q123">
+        <f t="shared" si="5"/>
+        <v>640</v>
+      </c>
+      <c r="R123">
+        <f t="shared" si="8"/>
+        <v>647</v>
+      </c>
+      <c r="S123">
+        <f t="shared" si="7"/>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>666</v>
       </c>
@@ -13088,8 +13782,20 @@
       <c r="O124">
         <v>42</v>
       </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q124">
+        <f t="shared" si="5"/>
+        <v>640</v>
+      </c>
+      <c r="R124">
+        <f t="shared" si="8"/>
+        <v>647</v>
+      </c>
+      <c r="S124">
+        <f t="shared" si="7"/>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>673</v>
       </c>
@@ -13136,8 +13842,20 @@
       <c r="O125">
         <v>27.42</v>
       </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q125">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="R125">
+        <f t="shared" si="8"/>
+        <v>47</v>
+      </c>
+      <c r="S125">
+        <f t="shared" si="7"/>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
         <v>680</v>
       </c>
@@ -13163,7 +13881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F127" t="s">
         <v>684</v>
       </c>
@@ -13189,7 +13907,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F128" t="s">
         <v>688</v>
       </c>
@@ -13243,7 +13961,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>370</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16822,12 +17540,12 @@
     <sortCondition ref="S1:S118"/>
   </sortState>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/R/BHrecruits.xlsx
+++ b/R/BHrecruits.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan.morse\Documents\GitHub\atneus_RM\R\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="554" activeTab="1"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="spawn" sheetId="2" r:id="rId2"/>
     <sheet name="mig" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -3272,7 +3277,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm:ss\ AM/PM"/>
   </numFmts>
@@ -3321,37 +3326,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3438,7 +3413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3473,7 +3448,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6844,8 +6819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D56" workbookViewId="0">
-      <selection activeCell="S68" sqref="S68"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13961,7 +13936,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>370</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13973,8 +13948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q131"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="G9" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17540,12 +17515,12 @@
     <sortCondition ref="S1:S118"/>
   </sortState>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/R/BHrecruits.xlsx
+++ b/R/BHrecruits.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="554" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="554" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BH" sheetId="1" r:id="rId1"/>
@@ -3268,10 +3268,10 @@
     <t>flagINVMigrate</t>
   </si>
   <si>
-    <t>mortality outside model</t>
-  </si>
-  <si>
     <t>growth outside model</t>
+  </si>
+  <si>
+    <t>returning proportion due to mortality outside model</t>
   </si>
 </sst>
 </file>
@@ -6819,7 +6819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
@@ -13948,8 +13948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q131"/>
   <sheetViews>
-    <sheetView topLeftCell="B85" workbookViewId="0">
-      <selection activeCell="Q40" sqref="Q40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13964,10 +13964,10 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="J1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M1" t="s">
         <v>1080</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
